--- a/scenario/ScenarioPlay2.xlsx
+++ b/scenario/ScenarioPlay2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t xml:space="preserve">【場所】</t>
   </si>
@@ -337,7 +337,13 @@
     <t xml:space="preserve">sucsess</t>
   </si>
   <si>
-    <t xml:space="preserve">auto</t>
+    <t xml:space="preserve">owari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sippai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kuria</t>
   </si>
 </sst>
 </file>
@@ -451,7 +457,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -478,21 +484,21 @@
   </sheetPr>
   <dimension ref="A1:P143"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="62" zoomScaleNormal="62" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="62" zoomScaleNormal="62" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="81.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="22.5"/>
   </cols>
@@ -600,20 +606,24 @@
         <v>4</v>
       </c>
       <c r="N3" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -633,7 +643,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>0</v>
@@ -651,16 +661,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1"/>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -673,12 +674,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -709,11 +705,17 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
+      <c r="C9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -727,11 +729,17 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
+      <c r="C10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>

--- a/scenario/ScenarioPlay2.xlsx
+++ b/scenario/ScenarioPlay2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2056" uniqueCount="509">
   <si>
     <t xml:space="preserve">【場所】</t>
   </si>
@@ -134,7 +134,7 @@
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">【イラスト</t>
+      <t xml:space="preserve">【選択肢</t>
     </r>
     <r>
       <rPr>
@@ -144,7 +144,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5</t>
+      <t xml:space="preserve">3</t>
     </r>
     <r>
       <rPr>
@@ -646,7 +646,7 @@
     <t xml:space="preserve">ちょっとはずかしい……</t>
   </si>
   <si>
-    <t xml:space="preserve">おとぼけ</t>
+    <t xml:space="preserve">おふざけ</t>
   </si>
   <si>
     <t xml:space="preserve">さ、作戦名はともかく……それなら、こよりが幽霊の居場所を探る事に集中できるな</t>
@@ -1625,7 +1625,7 @@
     <t xml:space="preserve">スコーーン！</t>
   </si>
   <si>
-    <t xml:space="preserve">スコン！</t>
+    <t xml:space="preserve">ひざ</t>
   </si>
   <si>
     <t xml:space="preserve">うおっ、膝カックン！？</t>
@@ -1873,7 +1873,50 @@
     <t xml:space="preserve">キーウィ</t>
   </si>
   <si>
-    <t xml:space="preserve">高専で何をしていたの？</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">高専で何をしていたの？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">高速でティンパニを治すキーウィ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">キーウィ・キウイ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アンゴラ</t>
   </si>
   <si>
     <t xml:space="preserve">……なんか、すまん</t>
@@ -1909,14 +1952,38 @@
     <t xml:space="preserve">聞きたいことがあるなら聞けばいい。無知な貴様と違って我は大概のことを知っておるぞ？</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">何をきこうか？</t>
+    <t xml:space="preserve">何をきこうか？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">俺の仲間が他に三人いるんだが、知らないか？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(161)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ここはどこだ？</t>
     </r>
     <r>
       <rPr>
@@ -1926,6 +1993,462 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
+      <t xml:space="preserve">(155)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">その“踊り場の鏡”から出るにはどうしたらいいんだ？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(158)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">なあ、ここはどこなんだ？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">何だ貴様、それも知らんのか</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ここは“踊り場の鏡”の中の異世界だ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">その“踊り場の鏡”から出るにはどうしたらいいんだ？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">簡単だ！入ってきた鏡に時速</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">20km</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">で突っ込んだら出られる！</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ただし、この世界にうじゃうじゃいる凶暴な幽霊達が仲間を増やそうと襲い掛かってくるので気を付ける事だ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">俺の仲間が他に三人いるんだが、知らないか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">貴様の仲間なんぞ知らん！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">器物損壊罪がこれ以上いてたまるか</t>
+  </si>
+  <si>
+    <t xml:space="preserve">とりあえず、なんとなく分かった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ティンパニも直したし、俺は透達を探しに行くからな！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ああ、もう貴様には用は無い</t>
+  </si>
+  <si>
+    <t xml:space="preserve">もう来るなよ！気を付けろよ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">うす！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">……さて、皆を探すかぁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ピンポンパンポーン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">チャイム開始</t>
+  </si>
+  <si>
+    <t xml:space="preserve">な、なんだ！？放送！？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雉真 陽希君、雉真 陽希君。至急美術室までお越し下さい。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">繰り返します。雉真 陽希君。至急、美術室までお越し下さい。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">美術室……？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">まあ、探す手掛かりも無いし…行ってみるか</t>
+  </si>
+  <si>
+    <t xml:space="preserve">美術室、美術室……あった。ここか</t>
+  </si>
+  <si>
+    <t xml:space="preserve">とりあえず様子を見てみるか……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">美術室</t>
+  </si>
+  <si>
+    <t xml:space="preserve">──美少女だ！デッサンしがいのある美少女だ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ビジュツ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">皆の者、筆を持てー！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">わっしょい！わっしょい！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">うーん……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">……なんだこれ。祭り？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">うおおおお！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">手もないのに絵描いてる、器用だな……って、ぼーっとしてる場合じゃねえ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">こよりを助けないと……！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">どうしよう？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">江永をかついで逃げる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">(200)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">石膏像に立ち向かう</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">(189)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">よし、行くぞ……！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">立ち向かう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">な、誰だ！？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">うおおおお！！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ヒッ、や、やめ……！！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">よ、よくもアグリッパを壊したな……！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">者ども、あいつを殺せ！！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">うわああああ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">くっ……！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAME OVER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">美少女が攫われた！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">返せーー！！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">うるせえお前らが攫った側だろ！！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">追え！逃がすな！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">うおおお！！……あっ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">こけたーーっ！？そ、総員止まっ……！！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">うわあああ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">な、なんて綺麗なドミノ倒しなんだ……！！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">今の内に……！</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">雉真</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">怒る</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ここまで来れば大丈夫だろ……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">こより、おい、起きろ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">うーん……はっ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">お前、石膏像の神輿にされてたぞ……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">みこし……神輿？どうして？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">いや俺にも分からん</t>
+  </si>
+  <si>
+    <t xml:space="preserve">うん、わたしも分からない……けど、助けてくれてありがとう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">おう！それじゃ、次は鷹森を助けに行くぞ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">お、放送きた！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なにこれ……？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雉真 陽希君、雉真 陽希君。至急理科室までお越し下さい。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">繰り返します。雉真 陽希君。至急、理科室までお越し下さい。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">こよりを見つけた時も放送があったんだ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">とりあえず放送の通りに理科室行くぞ！梓か透がいるはず！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">うん、わかった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">あ、理科室</t>
+  </si>
+  <si>
+    <t xml:space="preserve">着いたな！まずは様子見……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">理科室</t>
+  </si>
+  <si>
+    <t xml:space="preserve">骨格標本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">今日も美しいね、マイハニー。運ぶ足取りは白鳥のように艶やかだ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ワルツ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人体模型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">あなたこそ白鳥のようよ、ダーリン。白く輝くあなたの肌に、見惚れてしまいそう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">うわ……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">らぶらぶだね</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ちょっとキツ……いや、これはチャンスか</t>
+  </si>
+  <si>
+    <t xml:space="preserve">こっそり動けば、あいつらにバレずに梓を助けられるかも……！</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">鷹森を回収して逃げる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">(268)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">怪異と戦う </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">(240)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">立ち向かうしかない、か……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">俺があいつらを引きつけてる間に、こよりは梓を運んでくれ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">いけるか、こより</t>
+  </si>
+  <si>
+    <t xml:space="preserve">うん、がんばる……！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">よし、じゃあ四つん這いで机の陰に隠れながら行ってくれ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">俺は真っ正面から入る</t>
+  </si>
+  <si>
+    <t xml:space="preserve">オラァ！ご用改めだコラァ！！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">な、なんだお前は！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">せっかくダーリンと楽しく踊ってたのに無粋よ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ああ、すまないハニー。すぐにあの男を追い出すよ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">という訳で……実力行使と行こう！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">うおっ！？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ハニーとの時間を邪魔した罰だ！</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
       <t xml:space="preserve">(</t>
     </r>
     <r>
@@ -1935,7 +2458,7 @@
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">メモ：選択肢</t>
+      <t xml:space="preserve">どうする、このままじゃやられる……！</t>
     </r>
     <r>
       <rPr>
@@ -1945,6 +2468,773 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">あれは……</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(H2SO4…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">硫酸か！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">イチかバチか……！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">食らえ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ガシャーン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ガラス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">きゃあああああっ！？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ハニー！？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">とける！あつい！いやあああっ！！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">お前っ！ハニーに何をする！！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">がっ……！？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">はるきくん！！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">よし、忍び込んでこっそり梓を運び出すぞ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四つん這いで机の陰に隠れながら行こう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">そーっと……そーっとだからな……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">うん</t>
+  </si>
+  <si>
+    <t xml:space="preserve">あと……もうちょい……！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">う……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">とどいた…！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">よっしゃ…！早く出るぞ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ふー…なんとかなったな</t>
+  </si>
+  <si>
+    <t xml:space="preserve">あずさ、あずさ、起きて</t>
+  </si>
+  <si>
+    <t xml:space="preserve">……ハッ！！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">バッ、静かにしろ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">すみません、不覚をとりました。ありがとうございます</t>
+  </si>
+  <si>
+    <t xml:space="preserve">おう、どういたしまして</t>
+  </si>
+  <si>
+    <t xml:space="preserve">あとは、とおるくんだけ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">よし、もう少しで全員合流だな。頑張ろうぜ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雉真 陽希君、雉真 陽希君。至急放送室までお越し下さい。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">繰り返します。雉真 陽希君。至急、放送室までお越し下さい。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">私達もいるというのにキジマだけ呼び出すとは。失礼な奴ですね</t>
+  </si>
+  <si>
+    <t xml:space="preserve">そんな事言われても……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">まあ良いでしょう。さっさと放送室に向かい、声の主にクレーム一発くれてやるとしましょう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">物騒過ぎる……！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">と、とにかく放送室に……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">放送室はここですね</t>
+  </si>
+  <si>
+    <t xml:space="preserve">……透？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">いるか……？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">開けますよ……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ギィ……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ドアオープン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">放送室</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なっ、透……！？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">シラサギ……？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">とおる……</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">白鷺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">恐怖</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">お前……そんな……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">フリフリで……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ヒラヒラの……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ふわふわだ……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">たすけて……たすけて……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ふりふり</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">女子生徒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">A</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">やっぱり私の目に狂いは無かった…！似合ってるわ、シラサギくん</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">女子生徒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">B</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ウフフ、とっても可愛いわぁ！貴女の服、最高ね</t>
+  </si>
+  <si>
+    <t xml:space="preserve">……あら？もう来たのね、雉真 陽希君</t>
+  </si>
+  <si>
+    <t xml:space="preserve">……俺は透を羨むべきなのか、それとも憐れむべきなのか</t>
+  </si>
+  <si>
+    <t xml:space="preserve">わらえば、いいとおもうよ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">これが両手に花というやつですか</t>
+  </si>
+  <si>
+    <t xml:space="preserve">たすけて……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">おい、これどういう状況だ……？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アンタらは一体……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">あら、怖い顔しちゃやぁよ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">私達はこの学校の生徒だった幽霊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">そしてこの子の命の恩人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">この子、廊下で別の幽霊に襲われてたんだけど……顔が好みだったから助けてあげちゃった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">それに、あなたをここまで導いてあげたのも私達</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なるほど、あの放送はそういうことだったのか……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">まあ、こんなに可愛い子がいたら、可愛いお洋服着せてあげてくなっちゃうわよね</t>
+  </si>
+  <si>
+    <t xml:space="preserve">そうだ、せっかくなら、この子ちょうだい？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">そうよ。こんなに可愛い子、愛で足りないわ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ねえ、いいでしょ？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">いや……その、シラサギも嫌がってるし……やめてやってくれませんか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">まあ、そうよね。当たり前よね</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大丈夫、ダメ元で聞いただけだから。安心して、ここから出る手助けもしてあげるわ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">……できれば、この服を着ていって欲しいけれど</t>
+  </si>
+  <si>
+    <t xml:space="preserve">つつしんでおことわりさせてください……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">服を着せられただけでここまで弱るとは。鍛錬が足りていませんね</t>
+  </si>
+  <si>
+    <t xml:space="preserve">そう言わんでやってくれ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">そうだここから出る方法は知っているかしら？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">あ、はい。なんか時速</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">20km</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">で鏡に突っ込むとか……</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">そう。多少の誤差は許容されるけれど、ただ走って突っ込むだけじゃ速度が足りなくて鏡に拒まれるだけなの</t>
+  </si>
+  <si>
+    <t xml:space="preserve">そこで必要なのがこの自転車ね</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家庭科部のエースである、この私が！コツコツとパーツを拾い集めて作った傑作です！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">……まあ動かないけど</t>
+  </si>
+  <si>
+    <t xml:space="preserve">使えませんね</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ううううるさいわね！仕方ないじゃない、自転車の構造なんて詳しく知らないのよ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">見よう見まねで作ったにしては上等な方だわ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">確かに、ぱっと見はしっかり自転車だ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">うん、上手だね</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ほら見なさい！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">まあまあ、落ち着いてちょうだい。彼女も言ったとおり、このままでは動かない自転車だけど、もう少し改良すれば動くと思うわ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">だから、彼女と協力してこの自転車を動くように、そして貴方達四人が乗れるようにして、脱出するの</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">平均的な自転車の速度がちょうど時速</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">20km</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">。問題なく鏡を通り抜けられるはずよ</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">仕方ない、やるしかないか…</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">雉真</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">考察</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">数十分後…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">だー！！全ッ然わっかんねぇ本当にできるのかこれ！？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">雉真</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">焦り</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ええと、これがここにあって、これとこれは逆にして…</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">白鷺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">考察</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ん、この部品…いい武器になりそうですね</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">鷹森</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">驚き</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">いやそれ武器にしちゃだめなやつだから！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">って俺の話聞こえてねぇのかよ！あぁもう素振りまではじめやがった…本当に脱出できるのかこれ…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">またまた数十分後…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">な、なんとか完成した…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">みんなおつかれさま、がんばった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ゆうれいさん、これで脱出できるよね？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ええ、上出来よ。さ、自転車が動くようになったなら早くここから出なさい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鏡の外の校舎より、こっちの方がより物騒だからね</t>
+  </si>
+  <si>
+    <t xml:space="preserve">そうですね。さっさと出ましょう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自転車、誰が漕ぐ？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一番体力あるし、適任なのは俺だろうな</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">……三人乗っても</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">20km/h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">出せるのかしら</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">分からないわ……、でも彼に頑張って貰うしかないわね</t>
+  </si>
+  <si>
+    <t xml:space="preserve">はるきくんなら、大丈夫だよ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">……二人とも、自転車ありがとう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">良いのよ、私達は結局使えないまま死んじゃったし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">このまま錆び付かせるより、誰かの助けになった方が自転車も嬉しいでしょうし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">貴女達はこんな所で死んじゃダメよ？皆で生きて帰りなさい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">……うん、ありがとう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">おーい江永！行くぞー！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">陽希、頑張れ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">おう、任せろ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">準備はできたかしら？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">の、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
       <t xml:space="preserve">3</t>
     </r>
     <r>
@@ -1954,8 +3244,16 @@
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">つ</t>
-    </r>
+      <t xml:space="preserve">で扉を開くから、鏡まで突っ切りなさい！途中で止まるんじゃないわよ！</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">頼んます！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">さあ行くわよ！</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1964,31 +3262,19 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">なあ、ここはどこなんだ？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">何だ貴様、それも知らんのか</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ここは“踊り場の鏡”の中の異世界だ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">その“踊り場の鏡”から出るにはどうしたらいいんだ？</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">簡単だ！入ってきた鏡に時速</t>
-    </r>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">！</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1997,118 +3283,19 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">20km</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">で突っ込んだら出られる！</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">ただし、この世界にうじゃうじゃいる凶暴な幽霊達が仲間を増やそうと襲い掛かってくるので気を付ける事だ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">俺の仲間が他に三人いるんだが、知らないか？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">貴様の仲間なんぞ知らん！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">器物損壊罪がこれ以上いてたまるか</t>
-  </si>
-  <si>
-    <t xml:space="preserve">とりあえず、なんとなく分かった</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ティンパニも直したし、俺は透達を探しに行くからな！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ああ、もう貴様には用は無い</t>
-  </si>
-  <si>
-    <t xml:space="preserve">もう来るなよ！気を付けろよ！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">うす！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">……さて、皆を探すかぁ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ピンポンパンポーン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">チャイム開始</t>
-  </si>
-  <si>
-    <t xml:space="preserve">な、なんだ！？放送！？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">雉真 陽希君、雉真 陽希君。至急美術室までお越し下さい。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">繰り返します。雉真 陽希君。至急、美術室までお越し下さい。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">美術室……？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">まあ、探す手掛かりも無いし…行ってみるか</t>
-  </si>
-  <si>
-    <t xml:space="preserve">美術室、美術室……あった。ここか</t>
-  </si>
-  <si>
-    <t xml:space="preserve">とりあえず様子を見てみるか……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">美術室</t>
-  </si>
-  <si>
-    <t xml:space="preserve">──美少女だ！デッサンしがいのある美少女だ！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ビジュツ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">皆の者、筆を持てー！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">わっしょい！わっしょい！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">うーん……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">……なんだこれ。祭り？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">うおおおお！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">手もないのに絵描いてる、器用だな……って、ぼーっとしてる場合じゃねえ！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">こよりを助けないと……！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">どうしよう？</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">江永をかついで逃げる</t>
-    </r>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">の！</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2117,18 +3304,87 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">(200)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">石膏像に立ち向かう</t>
+      <t xml:space="preserve">3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">！</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">おりゃあああああ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">……行っちゃったわね</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ええ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">……大丈夫かしら</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大丈夫よ。だってあの子は……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">……ううん、あの子だけが理由じゃないわね。そう、皆あんなに生気に満ち溢れているんだもの</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ついでに、手土産も持たせてあげたから</t>
+  </si>
+  <si>
+    <t xml:space="preserve">手土産？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">そう。可愛い子にはお守りが必要でしょ？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">キジマ！後ろについてきています！もっと速く漕ぎなさい！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">無茶言うなこれが全力だ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">……っだあああああ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">すごい、ちょっと速くなった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">やればできるではないですか！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">見えた！あそこが出口だ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">頑張れはるきくん……！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">まずい、向こうも本気を出したようです</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ハァ！？ちょっと……もう……限界っ、なんだが……！？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">（このままじゃ追い付かれる……！）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">（こうなったら……）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ものを投げつける</t>
     </r>
     <r>
       <rPr>
@@ -2138,75 +3394,18 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">(189)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">よし、行くぞ……！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">立ち向かう</t>
-  </si>
-  <si>
-    <t xml:space="preserve">な、誰だ！？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">うおおおお！！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ヒッ、や、やめ……！！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">よ、よくもアグリッパを壊したな……！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">者ども、あいつを殺せ！！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">うわああああ！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">くっ……！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAME OVER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">美少女が攫われた！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">返せーー！！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">うるせえお前らが攫った側だろ！！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">追え！逃がすな！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">うおおお！！……あっ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">こけたーーっ！？そ、総員止まっ……！！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">うわあああ！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">な、なんて綺麗なドミノ倒しなんだ……！！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">今の内に……！</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">雉真</t>
+      <t xml:space="preserve">(407)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">大きな声で威嚇する</t>
     </r>
     <r>
       <rPr>
@@ -2216,6 +3415,72 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
+      <t xml:space="preserve">(420)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">（あれ、ポケットに何か入ってる……）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">（これは……裁ちばさみ？）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">よく分からないけど……、えい！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">投げる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">おや、怯んでいますね</t>
+  </si>
+  <si>
+    <t xml:space="preserve">よくやりましたシラサギ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">おりゃあああああああ！！！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ねえ、前……！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">階段……まずい！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">おちちゃう……！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">うわあああ！？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">……いってえ～</t>
+  </si>
+  <si>
+    <t xml:space="preserve">び、びっくりした</t>
+  </si>
+  <si>
+    <t xml:space="preserve">でも、脱出できたね</t>
+  </si>
+  <si>
+    <t xml:space="preserve">わあああああ！</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">白鷺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
       <t xml:space="preserve">_</t>
     </r>
     <r>
@@ -2229,95 +3494,26 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">ここまで来れば大丈夫だろ……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">こより、おい、起きろ！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">うーん……はっ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">お前、石膏像の神輿にされてたぞ……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">みこし……神輿？どうして？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">いや俺にも分からん</t>
-  </si>
-  <si>
-    <t xml:space="preserve">うん、わたしも分からない……けど、助けてくれてありがとう</t>
-  </si>
-  <si>
-    <t xml:space="preserve">おう！それじゃ、次は鷹森を助けに行くぞ！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">お、放送きた！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">なにこれ……？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">雉真 陽希君、雉真 陽希君。至急理科室までお越し下さい。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">繰り返します。雉真 陽希君。至急、理科室までお越し下さい。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">こよりを見つけた時も放送があったんだ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">とりあえず放送の通りに理科室行くぞ！梓か透がいるはず！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">うん、わかった</t>
-  </si>
-  <si>
-    <t xml:space="preserve">あ、理科室</t>
-  </si>
-  <si>
-    <t xml:space="preserve">着いたな！まずは様子見……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">理科室</t>
-  </si>
-  <si>
-    <t xml:space="preserve">骨格標本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">今日も美しいね、マイハニー。運ぶ足取りは白鳥のように艶やかだ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ワルツ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">人体模型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">あなたこそ白鳥のようよ、ダーリン。白く輝くあなたの肌に、見惚れてしまいそう</t>
-  </si>
-  <si>
-    <t xml:space="preserve">うわ……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">らぶらぶだね</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ちょっとキツ……いや、これはチャンスか</t>
-  </si>
-  <si>
-    <t xml:space="preserve">こっそり動けば、あいつらにバレずに梓を助けられるかも……！</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">鷹森を回収して逃げる</t>
+    <t xml:space="preserve">シラサギ……貴方……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">透、やっぱりあのヒラヒラふわふわで頭がおかしく……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">（恥ずかしい……！）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">……でも、ちょっと怯んでるみたい</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">江永</t>
     </r>
     <r>
       <rPr>
@@ -2325,952 +3521,7 @@
         <color rgb="FF000000"/>
         <rFont val="游ゴシック"/>
         <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">(268)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">怪異と戦う </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">(240)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">立ち向かうしかない、か……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">俺があいつらを引きつけてる間に、こよりは梓を運んでくれ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">いけるか、こより</t>
-  </si>
-  <si>
-    <t xml:space="preserve">うん、がんばる……！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">よし、じゃあ四つん這いで机の陰に隠れながら行ってくれ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">俺は真っ正面から入る</t>
-  </si>
-  <si>
-    <t xml:space="preserve">オラァ！ご用改めだコラァ！！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">な、なんだお前は！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">せっかくダーリンと楽しく踊ってたのに無粋よ！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ああ、すまないハニー。すぐにあの男を追い出すよ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">という訳で……実力行使と行こう！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">うおっ！？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ハニーとの時間を邪魔した罰だ！</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">どうする、このままじゃやられる……！</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">あれは……</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">硫酸のカットイン</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">イチかバチか……！</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">食らえ！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ガシャーン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">きゃあああああっ！？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ハニー！？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">とける！あつい！いやあああっ！！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">お前っ！ハニーに何をする！！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">がっ……！？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">はるきくん！！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">よし、忍び込んでこっそり梓を運び出すぞ！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">四つん這いで机の陰に隠れながら行こう</t>
-  </si>
-  <si>
-    <t xml:space="preserve">そーっと……そーっとだからな……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">うん</t>
-  </si>
-  <si>
-    <t xml:space="preserve">あと……もうちょい……！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">う……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">とどいた…！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">よっしゃ…！早く出るぞ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ふー…なんとかなったな</t>
-  </si>
-  <si>
-    <t xml:space="preserve">あずさ、あずさ、起きて</t>
-  </si>
-  <si>
-    <t xml:space="preserve">……ハッ！！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">バッ、静かにしろ！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">すみません、不覚をとりました。ありがとうございます</t>
-  </si>
-  <si>
-    <t xml:space="preserve">おう、どういたしまして</t>
-  </si>
-  <si>
-    <t xml:space="preserve">あとは、とおるくんだけ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">よし、もう少しで全員合流だな。頑張ろうぜ！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">雉真 陽希君、雉真 陽希君。至急放送室までお越し下さい。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">繰り返します。雉真 陽希君。至急、放送室までお越し下さい。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">私達もいるというのにキジマだけ呼び出すとは。失礼な奴ですね</t>
-  </si>
-  <si>
-    <t xml:space="preserve">そんな事言われても……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">まあ良いでしょう。さっさと放送室に向かい、声の主にクレーム一発くれてやるとしましょう</t>
-  </si>
-  <si>
-    <t xml:space="preserve">物騒過ぎる……！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">と、とにかく放送室に……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">放送室はここですね</t>
-  </si>
-  <si>
-    <t xml:space="preserve">……透？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">いるか……？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">開けますよ……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ギィ……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">放送室</t>
-  </si>
-  <si>
-    <t xml:space="preserve">なっ、透……！？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">シラサギ……？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">とおる……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">お前……そんな……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">フリフリで……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ヒラヒラの……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ふわふわだ……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">たすけて……たすけて……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ふりふり</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">女子生徒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">A</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">やっぱり私の目に狂いは無かった…！似合ってるわ、シラサギくん</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">女子生徒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">B</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">ウフフ、とっても可愛いわぁ！貴女の服、最高ね</t>
-  </si>
-  <si>
-    <t xml:space="preserve">……あら？もう来たのね、雉真 陽希君</t>
-  </si>
-  <si>
-    <t xml:space="preserve">……俺は透を羨むべきなのか、それとも憐れむべきなのか</t>
-  </si>
-  <si>
-    <t xml:space="preserve">わらえば、いいとおもうよ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">これが両手に花というやつですか</t>
-  </si>
-  <si>
-    <t xml:space="preserve">たすけて……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">おい、これどういう状況だ……？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アンタらは一体……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">あら、怖い顔しちゃやぁよ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">私達はこの学校の生徒だった幽霊</t>
-  </si>
-  <si>
-    <t xml:space="preserve">そしてこの子の命の恩人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">この子、廊下で別の幽霊に襲われてたんだけど……顔が好みだったから助けてあげちゃった</t>
-  </si>
-  <si>
-    <t xml:space="preserve">それに、あなたをここまで導いてあげたのも私達</t>
-  </si>
-  <si>
-    <t xml:space="preserve">なるほど、あの放送はそういうことだったのか……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">まあ、こんなに可愛い子がいたら、可愛いお洋服着せてあげてくなっちゃうわよね</t>
-  </si>
-  <si>
-    <t xml:space="preserve">そうだ、せっかくなら、この子ちょうだい？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">そうよ。こんなに可愛い子、愛で足りないわ！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ねえ、いいでしょ？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">いや……その、シラサギも嫌がってるし……やめてやってくれませんか？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">まあ、そうよね。当たり前よね</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大丈夫、ダメ元で聞いただけだから。安心して、ここから出る手助けもしてあげるわ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">……できれば、この服を着ていって欲しいけれど</t>
-  </si>
-  <si>
-    <t xml:space="preserve">つつしんでおことわりさせてください……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">服を着せられただけでここまで弱るとは。鍛錬が足りていませんね</t>
-  </si>
-  <si>
-    <t xml:space="preserve">そう言わんでやってくれ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">そうだここから出る方法は知っているかしら？</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">あ、はい。なんか時速</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">20km</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">で鏡に突っ込むとか……</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">そう。多少の誤差は許容されるけれど、ただ走って突っ込むだけじゃ速度が足りなくて鏡に拒まれるだけなの</t>
-  </si>
-  <si>
-    <t xml:space="preserve">そこで必要なのがこの自転車ね</t>
-  </si>
-  <si>
-    <t xml:space="preserve">家庭科部のエースである、この私が！コツコツとパーツを拾い集めて作った傑作です！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">……まあ動かないけど</t>
-  </si>
-  <si>
-    <t xml:space="preserve">使えませんね</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ううううるさいわね！仕方ないじゃない、自転車の構造なんて詳しく知らないのよ！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">見よう見まねで作ったにしては上等な方だわ！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">確かに、ぱっと見はしっかり自転車だ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">うん、上手だね</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ほら見なさい！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">まあまあ、落ち着いてちょうだい。彼女も言ったとおり、このままでは動かない自転車だけど、もう少し改良すれば動くと思うわ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">だから、彼女と協力してこの自転車を動くように、そして貴方達四人が乗れるようにして、脱出するの</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">平均的な自転車の速度がちょうど時速</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">20km</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">。問題なく鏡を通り抜けられるはずよ</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">……おねがい、できる？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">あら……やるじゃない。目にも留まらぬ早業、恐れ入るわ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">（何が起きたんだ…！？良く分からん間に自転車が出来上がっている！？）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">……ありがとう</t>
-  </si>
-  <si>
-    <t xml:space="preserve">キーウィ・キウイ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">君は実に可哀想なやつだなあ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">……えっと、うん……その……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">よく分からんまま罵倒されたが……自転車はなんとかしてくれたみたいだな</t>
-  </si>
-  <si>
-    <t xml:space="preserve">さ、自転車が動くようになったなら早くここから出なさい</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鏡の外の校舎より、こっちの方がより物騒だからね</t>
-  </si>
-  <si>
-    <t xml:space="preserve">そうですね。さっさと出ましょう</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自転車、誰が漕ぐ？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">一番体力あるし、適任なのは俺だろうな</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">……三人乗っても</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">20km/h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">出せるのかしら</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">分からないわ……、でも彼に頑張って貰うしかないわね</t>
-  </si>
-  <si>
-    <t xml:space="preserve">はるきくんなら、大丈夫だよ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">……二人とも、自転車ありがとう</t>
-  </si>
-  <si>
-    <t xml:space="preserve">良いのよ、私達は結局使えないまま死んじゃったし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">このまま錆び付かせるより、誰かの助けになった方が自転車も嬉しいでしょうし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">貴女達はこんな所で死んじゃダメよ？皆で生きて帰りなさい</t>
-  </si>
-  <si>
-    <t xml:space="preserve">……うん、ありがとう</t>
-  </si>
-  <si>
-    <t xml:space="preserve">おーい江永！行くぞー！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">陽希、頑張れ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">おう、任せろ！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">準備はできたかしら？</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">の、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">で扉を開くから、鏡まで突っ切りなさい！途中で止まるんじゃないわよ！</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">頼んます！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">さあ行くわよ！</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">！</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">の！</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">！</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">おりゃあああああ！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">……行っちゃったわね</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ええ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">……大丈夫かしら</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大丈夫よ。だってあの子は……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">……ううん、あの子だけが理由じゃないわね。そう、皆あんなに生気に満ち溢れているんだもの</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ついでに、手土産も持たせてあげたから</t>
-  </si>
-  <si>
-    <t xml:space="preserve">手土産？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">そう。可愛い子にはお守りが必要でしょ？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">キジマ！後ろについてきています！もっと速く漕ぎなさい！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">無茶言うなこれが全力だ！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">……っだあああああ！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">すごい、ちょっと速くなった</t>
-  </si>
-  <si>
-    <t xml:space="preserve">やればできるではないですか！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">見えた！あそこが出口だ！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">頑張れはるきくん……！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">まずい、向こうも本気を出したようです</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ハァ！？ちょっと……もう……限界っ、なんだが……！？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">（このままじゃ追い付かれる……！）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">（こうなったら……）</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ものを投げつける</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">(407)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">大きな声で威嚇する</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">(420)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">（あれ、ポケットに何か入ってる……）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">（これは……裁ちばさみ？）</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">よく分からないけど……、えい！</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">投げる</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">SE)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">おや、怯んでいますね</t>
-  </si>
-  <si>
-    <t xml:space="preserve">よくやりましたシラサギ！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">おりゃあああああああ！！！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ねえ、前……！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">階段……まずい！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">おちちゃう……！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">うわあああ！？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">……いってえ～</t>
-  </si>
-  <si>
-    <t xml:space="preserve">び、びっくりした</t>
-  </si>
-  <si>
-    <t xml:space="preserve">でも、脱出できたね</t>
-  </si>
-  <si>
-    <t xml:space="preserve">わあああああ！</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">白鷺</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">_</t>
     </r>
@@ -3281,29 +3532,23 @@
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">怒る</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">シラサギ……貴方……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">透、やっぱりあのヒラヒラふわふわで頭がおかしく……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">（恥ずかしい……！）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">……でも、ちょっと怯んでるみたい</t>
+      <t xml:space="preserve">笑顔</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">……ん？</t>
   </si>
   <si>
+    <t xml:space="preserve">発見</t>
+  </si>
+  <si>
     <t xml:space="preserve">（何かがポケットに……？）</t>
   </si>
   <si>
     <t xml:space="preserve">「鍵」をてにいれた</t>
+  </si>
+  <si>
+    <t xml:space="preserve">発見効果音</t>
   </si>
   <si>
     <t xml:space="preserve">ちょ、もう、むり……</t>
@@ -3349,7 +3594,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3399,6 +3644,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3442,7 +3694,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3467,6 +3719,10 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3486,8 +3742,8 @@
   </sheetPr>
   <dimension ref="A1:P447"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P18" activeCellId="0" sqref="P18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F243" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N261" activeCellId="0" sqref="N261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5394,7 +5650,7 @@
       </c>
       <c r="P62" s="1"/>
     </row>
-    <row r="63" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>16</v>
       </c>
@@ -5420,7 +5676,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="P63" s="1"/>
     </row>
@@ -5446,7 +5702,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="P64" s="1"/>
     </row>
@@ -5538,7 +5794,9 @@
       <c r="O67" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P67" s="1"/>
+      <c r="P67" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
@@ -7723,7 +7981,7 @@
         <v>52</v>
       </c>
       <c r="O142" s="1" t="s">
-        <v>176</v>
+        <v>49</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7743,7 +8001,7 @@
         <v>52</v>
       </c>
       <c r="O143" s="1" t="s">
-        <v>176</v>
+        <v>49</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7759,8 +8017,11 @@
       <c r="D144" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="E144" s="3" t="s">
+        <v>199</v>
+      </c>
       <c r="O144" s="1" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7771,7 +8032,7 @@
         <v>17</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D145" s="2" t="n">
         <v>1</v>
@@ -7780,7 +8041,7 @@
         <v>42</v>
       </c>
       <c r="O145" s="1" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7791,7 +8052,7 @@
         <v>163</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D146" s="2" t="n">
         <v>1</v>
@@ -7808,7 +8069,7 @@
         <v>163</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D147" s="2" t="n">
         <v>1</v>
@@ -7825,7 +8086,7 @@
         <v>17</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D148" s="2" t="n">
         <v>1</v>
@@ -7845,7 +8106,7 @@
         <v>17</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D149" s="2" t="n">
         <v>1</v>
@@ -7865,7 +8126,7 @@
         <v>163</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D150" s="2" t="n">
         <v>1</v>
@@ -7879,10 +8140,10 @@
         <v>162</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D151" s="2" t="n">
         <v>1</v>
@@ -7896,10 +8157,10 @@
         <v>162</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D152" s="2" t="n">
         <v>1</v>
@@ -7913,10 +8174,10 @@
         <v>162</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D153" s="2" t="n">
         <v>1</v>
@@ -7930,10 +8191,19 @@
         <v>162</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D154" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="J154" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="K154" s="3" t="s">
+        <v>215</v>
       </c>
       <c r="O154" s="1" t="s">
         <v>176</v>
@@ -7947,7 +8217,7 @@
         <v>17</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D155" s="2" t="n">
         <v>1</v>
@@ -7964,10 +8234,10 @@
         <v>162</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D156" s="2" t="n">
         <v>1</v>
@@ -7981,13 +8251,16 @@
         <v>162</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D157" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="L157" s="0" t="n">
+        <v>164</v>
       </c>
       <c r="O157" s="1" t="s">
         <v>176</v>
@@ -8001,9 +8274,9 @@
         <v>17</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D158" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="D158" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E158" s="3" t="s">
@@ -8018,12 +8291,12 @@
         <v>162</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D159" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="D159" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O159" s="1" t="s">
@@ -8035,13 +8308,16 @@
         <v>162</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D160" s="2" t="n">
-        <v>1</v>
+        <v>221</v>
+      </c>
+      <c r="D160" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L160" s="0" t="n">
+        <v>164</v>
       </c>
       <c r="O160" s="1" t="s">
         <v>176</v>
@@ -8055,9 +8331,9 @@
         <v>17</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D161" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="D161" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E161" s="3" t="s">
@@ -8072,12 +8348,12 @@
         <v>162</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D162" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="D162" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O162" s="1" t="s">
@@ -8089,12 +8365,12 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D163" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="D163" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O163" s="1" t="s">
@@ -8109,9 +8385,9 @@
         <v>17</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D164" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="D164" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E164" s="3" t="s">
@@ -8129,9 +8405,9 @@
         <v>17</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D165" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="D165" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E165" s="3" t="s">
@@ -8146,12 +8422,12 @@
         <v>162</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D166" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="D166" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O166" s="1" t="s">
@@ -8163,19 +8439,19 @@
         <v>162</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D167" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="D167" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O167" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
         <v>162</v>
       </c>
@@ -8183,9 +8459,9 @@
         <v>17</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D168" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="D168" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E168" s="3" t="s">
@@ -8203,9 +8479,9 @@
         <v>17</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D169" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="D169" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E169" s="3" t="s">
@@ -8215,7 +8491,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="3" t="s">
         <v>16</v>
       </c>
@@ -8223,27 +8499,27 @@
         <v>127</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O170" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D171" s="2" t="n">
+        <v>231</v>
+      </c>
+      <c r="D171" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O171" s="3" t="s">
         <v>49</v>
       </c>
       <c r="P171" s="3" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8254,9 +8530,9 @@
         <v>17</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D172" s="2" t="n">
+        <v>233</v>
+      </c>
+      <c r="D172" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E172" s="3" t="s">
@@ -8266,28 +8542,28 @@
         <v>49</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D173" s="2" t="n">
+        <v>234</v>
+      </c>
+      <c r="D173" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O173" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D174" s="2" t="n">
+        <v>235</v>
+      </c>
+      <c r="D174" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O174" s="3" t="s">
@@ -8302,9 +8578,9 @@
         <v>17</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D175" s="2" t="n">
+        <v>236</v>
+      </c>
+      <c r="D175" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E175" s="3" t="s">
@@ -8322,9 +8598,9 @@
         <v>17</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D176" s="2" t="n">
+        <v>237</v>
+      </c>
+      <c r="D176" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E176" s="3" t="s">
@@ -8341,8 +8617,8 @@
       <c r="C177" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="D177" s="2" t="n">
-        <v>5</v>
+      <c r="D177" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="O177" s="3" t="s">
         <v>49</v>
@@ -8356,9 +8632,9 @@
         <v>17</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D178" s="2" t="n">
+        <v>238</v>
+      </c>
+      <c r="D178" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E178" s="3" t="s">
@@ -8376,9 +8652,9 @@
         <v>17</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D179" s="2" t="n">
+        <v>239</v>
+      </c>
+      <c r="D179" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E179" s="3" t="s">
@@ -8388,278 +8664,278 @@
         <v>49</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D180" s="2" t="n">
+        <v>241</v>
+      </c>
+      <c r="D180" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O180" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D181" s="2" t="n">
+        <v>243</v>
+      </c>
+      <c r="D181" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O181" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D182" s="2" t="n">
+        <v>244</v>
+      </c>
+      <c r="D182" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O182" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D183" s="2" t="n">
+        <v>245</v>
+      </c>
+      <c r="D183" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O183" s="3" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D184" s="2" t="n">
+        <v>246</v>
+      </c>
+      <c r="D184" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E184" s="3" t="s">
         <v>31</v>
       </c>
       <c r="O184" s="3" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C185" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D185" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O185" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="D185" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O185" s="3" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D186" s="2" t="n">
+        <v>248</v>
+      </c>
+      <c r="D186" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E186" s="3" t="s">
         <v>52</v>
       </c>
       <c r="O186" s="3" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D187" s="2" t="n">
+        <v>249</v>
+      </c>
+      <c r="D187" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E187" s="3" t="s">
         <v>52</v>
       </c>
       <c r="O187" s="3" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D188" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J188" s="3" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K188" s="3" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="O188" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D189" s="2" t="n">
+        <v>253</v>
+      </c>
+      <c r="D189" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>52</v>
       </c>
       <c r="O189" s="3" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="D190" s="2" t="n">
+        <v>255</v>
+      </c>
+      <c r="D190" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O190" s="3" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D191" s="2" t="n">
+        <v>256</v>
+      </c>
+      <c r="D191" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>52</v>
       </c>
       <c r="O191" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D192" s="2" t="n">
+        <v>257</v>
+      </c>
+      <c r="D192" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O192" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D193" s="2" t="n">
+        <v>258</v>
+      </c>
+      <c r="D193" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O193" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C194" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D194" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O194" s="3" t="s">
         <v>254</v>
-      </c>
-      <c r="D194" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O194" s="3" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D195" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O195" s="3" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D196" s="2" t="n">
         <v>1</v>
@@ -8671,14 +8947,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="D197" s="0" t="n">
+        <v>262</v>
+      </c>
+      <c r="D197" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O197" s="3" t="s">
@@ -8687,13 +8963,13 @@
     </row>
     <row r="200" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D200" s="2" t="n">
         <v>1</v>
@@ -8702,32 +8978,32 @@
         <v>52</v>
       </c>
       <c r="O200" s="3" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D201" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O201" s="3" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D202" s="2" t="n">
         <v>1</v>
@@ -8736,46 +9012,46 @@
         <v>52</v>
       </c>
       <c r="O202" s="3" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D203" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O203" s="3" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D204" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O204" s="3" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D205" s="2" t="n">
         <v>1</v>
@@ -8784,74 +9060,74 @@
         <v>52</v>
       </c>
       <c r="O205" s="3" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="D206" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O206" s="3" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D207" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O207" s="3" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D208" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O208" s="3" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D209" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O209" s="3" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D210" s="2" t="n">
         <v>1</v>
@@ -8860,30 +9136,33 @@
         <v>52</v>
       </c>
       <c r="O210" s="3" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D211" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="O211" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="C212" s="0" t="s">
         <v>127</v>
       </c>
@@ -8902,7 +9181,7 @@
         <v>17</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D213" s="2" t="n">
         <v>1</v>
@@ -8922,7 +9201,7 @@
         <v>17</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D214" s="2" t="n">
         <v>1</v>
@@ -8942,7 +9221,7 @@
         <v>24</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D215" s="2" t="n">
         <v>1</v>
@@ -8962,7 +9241,7 @@
         <v>17</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D216" s="2" t="n">
         <v>1</v>
@@ -8982,7 +9261,7 @@
         <v>24</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D217" s="2" t="n">
         <v>1</v>
@@ -9002,7 +9281,7 @@
         <v>17</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D218" s="2" t="n">
         <v>1</v>
@@ -9022,7 +9301,7 @@
         <v>24</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="D219" s="2" t="n">
         <v>1</v>
@@ -9042,7 +9321,7 @@
         <v>17</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D220" s="2" t="n">
         <v>1</v>
@@ -9073,16 +9352,16 @@
         <v>16</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="D222" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O222" s="3" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="P222" s="3" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9093,7 +9372,7 @@
         <v>17</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="D223" s="2" t="n">
         <v>1</v>
@@ -9102,7 +9381,7 @@
         <v>67</v>
       </c>
       <c r="O223" s="3" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9113,7 +9392,7 @@
         <v>24</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D224" s="2" t="n">
         <v>1</v>
@@ -9122,7 +9401,7 @@
         <v>26</v>
       </c>
       <c r="O224" s="3" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9130,13 +9409,13 @@
         <v>16</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D225" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O225" s="3" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9144,13 +9423,13 @@
         <v>16</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D226" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O226" s="3" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9161,7 +9440,7 @@
         <v>17</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="D227" s="2" t="n">
         <v>1</v>
@@ -9170,7 +9449,7 @@
         <v>67</v>
       </c>
       <c r="O227" s="3" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9181,7 +9460,7 @@
         <v>17</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="D228" s="2" t="n">
         <v>1</v>
@@ -9190,7 +9469,7 @@
         <v>31</v>
       </c>
       <c r="O228" s="3" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9201,7 +9480,7 @@
         <v>24</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D229" s="2" t="n">
         <v>1</v>
@@ -9210,7 +9489,7 @@
         <v>26</v>
       </c>
       <c r="O229" s="3" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9235,7 +9514,7 @@
         <v>24</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D231" s="2" t="n">
         <v>1</v>
@@ -9255,7 +9534,7 @@
         <v>17</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D232" s="2" t="n">
         <v>1</v>
@@ -9269,47 +9548,47 @@
     </row>
     <row r="233" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D233" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O233" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D234" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O234" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D235" s="2" t="n">
         <v>1</v>
@@ -9318,18 +9597,18 @@
         <v>52</v>
       </c>
       <c r="O235" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D236" s="2" t="n">
         <v>1</v>
@@ -9338,18 +9617,18 @@
         <v>26</v>
       </c>
       <c r="O236" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="3" t="s">
-        <v>285</v>
+        <v>16</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="D237" s="2" t="n">
         <v>1</v>
@@ -9358,18 +9637,18 @@
         <v>52</v>
       </c>
       <c r="O237" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="3" t="s">
-        <v>285</v>
+        <v>16</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D238" s="2" t="n">
         <v>1</v>
@@ -9378,7 +9657,7 @@
         <v>31</v>
       </c>
       <c r="O238" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9386,19 +9665,19 @@
         <v>16</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D239" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J239" s="3" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="K239" s="3" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="O239" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9409,7 +9688,7 @@
         <v>17</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="D240" s="2" t="n">
         <v>1</v>
@@ -9418,7 +9697,7 @@
         <v>67</v>
       </c>
       <c r="O240" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9429,7 +9708,7 @@
         <v>17</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D241" s="2" t="n">
         <v>1</v>
@@ -9438,7 +9717,7 @@
         <v>67</v>
       </c>
       <c r="O241" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9449,7 +9728,7 @@
         <v>17</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D242" s="2" t="n">
         <v>1</v>
@@ -9458,7 +9737,7 @@
         <v>67</v>
       </c>
       <c r="O242" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9469,7 +9748,7 @@
         <v>24</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D243" s="2" t="n">
         <v>1</v>
@@ -9478,7 +9757,7 @@
         <v>61</v>
       </c>
       <c r="O243" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9489,7 +9768,7 @@
         <v>17</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D244" s="2" t="n">
         <v>1</v>
@@ -9498,7 +9777,7 @@
         <v>67</v>
       </c>
       <c r="O244" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9509,7 +9788,7 @@
         <v>17</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D245" s="2" t="n">
         <v>1</v>
@@ -9518,24 +9797,24 @@
         <v>67</v>
       </c>
       <c r="O245" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D246" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="O246" s="3" t="s">
         <v>49</v>
@@ -9543,13 +9822,13 @@
     </row>
     <row r="247" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="D247" s="2" t="n">
         <v>1</v>
@@ -9560,13 +9839,13 @@
     </row>
     <row r="248" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="D248" s="2" t="n">
         <v>1</v>
@@ -9577,13 +9856,13 @@
     </row>
     <row r="249" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D249" s="2" t="n">
         <v>1</v>
@@ -9594,13 +9873,13 @@
     </row>
     <row r="250" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D250" s="2" t="n">
         <v>1</v>
@@ -9611,13 +9890,13 @@
     </row>
     <row r="251" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="D251" s="2" t="n">
         <v>1</v>
@@ -9631,13 +9910,13 @@
     </row>
     <row r="252" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="D252" s="2" t="n">
         <v>1</v>
@@ -9648,13 +9927,13 @@
     </row>
     <row r="253" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D253" s="2" t="n">
         <v>1</v>
@@ -9668,13 +9947,13 @@
     </row>
     <row r="254" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="D254" s="2" t="n">
         <v>1</v>
@@ -9688,13 +9967,19 @@
     </row>
     <row r="255" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C255" s="3" t="s">
-        <v>312</v>
+        <v>290</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C255" s="6" t="s">
+        <v>317</v>
       </c>
       <c r="D255" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="E255" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="O255" s="3" t="s">
         <v>143</v>
@@ -9702,13 +9987,13 @@
     </row>
     <row r="256" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="D256" s="2" t="n">
         <v>1</v>
@@ -9722,19 +10007,19 @@
     </row>
     <row r="257" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D257" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="O257" s="3" t="s">
         <v>143</v>
@@ -9742,10 +10027,10 @@
     </row>
     <row r="258" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="D258" s="2" t="n">
         <v>1</v>
@@ -9753,16 +10038,19 @@
       <c r="O258" s="3" t="s">
         <v>143</v>
       </c>
+      <c r="P258" s="3" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="259" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="D259" s="2" t="n">
         <v>1</v>
@@ -9773,13 +10061,13 @@
     </row>
     <row r="260" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="D260" s="2" t="n">
         <v>1</v>
@@ -9790,13 +10078,13 @@
     </row>
     <row r="261" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D261" s="2" t="n">
         <v>1</v>
@@ -9807,13 +10095,13 @@
     </row>
     <row r="262" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="D262" s="2" t="n">
         <v>1</v>
@@ -9824,13 +10112,13 @@
     </row>
     <row r="263" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D263" s="2" t="n">
         <v>1</v>
@@ -9844,13 +10132,13 @@
     </row>
     <row r="264" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D264" s="2" t="n">
         <v>1</v>
@@ -9864,10 +10152,10 @@
     </row>
     <row r="265" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C265" s="0" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D265" s="2" t="n">
         <v>0</v>
@@ -9881,7 +10169,7 @@
         <v>17</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="D268" s="2" t="n">
         <v>1</v>
@@ -9890,7 +10178,7 @@
         <v>67</v>
       </c>
       <c r="O268" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9901,7 +10189,7 @@
         <v>17</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D269" s="2" t="n">
         <v>1</v>
@@ -9910,7 +10198,7 @@
         <v>67</v>
       </c>
       <c r="O269" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9921,7 +10209,7 @@
         <v>24</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D270" s="2" t="n">
         <v>1</v>
@@ -9930,7 +10218,7 @@
         <v>61</v>
       </c>
       <c r="O270" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9941,7 +10229,7 @@
         <v>17</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="D271" s="2" t="n">
         <v>1</v>
@@ -9950,18 +10238,18 @@
         <v>42</v>
       </c>
       <c r="O271" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="D272" s="2" t="n">
         <v>1</v>
@@ -9970,18 +10258,18 @@
         <v>42</v>
       </c>
       <c r="O272" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="D273" s="2" t="n">
         <v>1</v>
@@ -9990,18 +10278,18 @@
         <v>26</v>
       </c>
       <c r="O273" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="D274" s="2" t="n">
         <v>1</v>
@@ -10010,35 +10298,35 @@
         <v>42</v>
       </c>
       <c r="O274" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="D275" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O275" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="D276" s="2" t="n">
         <v>1</v>
@@ -10047,18 +10335,18 @@
         <v>87</v>
       </c>
       <c r="O276" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="D277" s="2" t="n">
         <v>1</v>
@@ -10067,12 +10355,12 @@
         <v>67</v>
       </c>
       <c r="O277" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C278" s="0" t="s">
         <v>127</v>
@@ -10092,7 +10380,7 @@
         <v>17</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D279" s="2" t="n">
         <v>1</v>
@@ -10112,7 +10400,7 @@
         <v>24</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="D280" s="2" t="n">
         <v>1</v>
@@ -10132,7 +10420,7 @@
         <v>27</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="D281" s="2" t="n">
         <v>1</v>
@@ -10152,7 +10440,7 @@
         <v>17</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="D282" s="2" t="n">
         <v>1</v>
@@ -10172,7 +10460,7 @@
         <v>27</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="D283" s="2" t="n">
         <v>1</v>
@@ -10192,7 +10480,7 @@
         <v>17</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="D284" s="2" t="n">
         <v>1</v>
@@ -10212,7 +10500,7 @@
         <v>24</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D285" s="2" t="n">
         <v>1</v>
@@ -10232,7 +10520,7 @@
         <v>17</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="D286" s="2" t="n">
         <v>1</v>
@@ -10249,16 +10537,16 @@
         <v>16</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="D287" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O287" s="3" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="P287" s="3" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10266,13 +10554,13 @@
         <v>16</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="D288" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O288" s="3" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10283,7 +10571,7 @@
         <v>27</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="D289" s="2" t="n">
         <v>1</v>
@@ -10292,7 +10580,7 @@
         <v>29</v>
       </c>
       <c r="O289" s="3" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10303,7 +10591,7 @@
         <v>17</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="D290" s="2" t="n">
         <v>1</v>
@@ -10312,7 +10600,7 @@
         <v>42</v>
       </c>
       <c r="O290" s="3" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10323,7 +10611,7 @@
         <v>27</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="D291" s="2" t="n">
         <v>1</v>
@@ -10332,7 +10620,7 @@
         <v>29</v>
       </c>
       <c r="O291" s="3" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10343,7 +10631,7 @@
         <v>17</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="D292" s="2" t="n">
         <v>1</v>
@@ -10352,10 +10640,10 @@
         <v>52</v>
       </c>
       <c r="O292" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="293" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="3" t="s">
         <v>16</v>
       </c>
@@ -10363,7 +10651,7 @@
         <v>17</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="D293" s="2" t="n">
         <v>1</v>
@@ -10372,7 +10660,7 @@
         <v>52</v>
       </c>
       <c r="O293" s="3" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10397,7 +10685,7 @@
         <v>27</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="D295" s="2" t="n">
         <v>1</v>
@@ -10417,7 +10705,7 @@
         <v>17</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="D296" s="2" t="n">
         <v>1</v>
@@ -10437,7 +10725,7 @@
         <v>17</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="D297" s="2" t="n">
         <v>1</v>
@@ -10457,7 +10745,7 @@
         <v>27</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="D298" s="2" t="n">
         <v>1</v>
@@ -10474,7 +10762,7 @@
         <v>16</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="D299" s="2" t="n">
         <v>1</v>
@@ -10482,16 +10770,19 @@
       <c r="O299" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="P299" s="3" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="300" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="D300" s="2" t="n">
         <v>1</v>
@@ -10505,13 +10796,13 @@
     </row>
     <row r="301" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="D301" s="2" t="n">
         <v>1</v>
@@ -10525,13 +10816,13 @@
     </row>
     <row r="302" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="D302" s="2" t="n">
         <v>1</v>
@@ -10545,7 +10836,7 @@
     </row>
     <row r="303" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>21</v>
@@ -10557,7 +10848,7 @@
         <v>1</v>
       </c>
       <c r="E303" s="3" t="s">
-        <v>23</v>
+        <v>361</v>
       </c>
       <c r="O303" s="3" t="s">
         <v>49</v>
@@ -10565,13 +10856,13 @@
     </row>
     <row r="304" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="D304" s="2" t="n">
         <v>1</v>
@@ -10585,13 +10876,13 @@
     </row>
     <row r="305" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="D305" s="2" t="n">
         <v>1</v>
@@ -10605,13 +10896,13 @@
     </row>
     <row r="306" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D306" s="2" t="n">
         <v>1</v>
@@ -10625,13 +10916,13 @@
     </row>
     <row r="307" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="D307" s="2" t="n">
         <v>1</v>
@@ -10645,84 +10936,84 @@
     </row>
     <row r="308" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="D308" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E308" s="3" t="s">
-        <v>23</v>
+        <v>361</v>
       </c>
       <c r="O308" s="3" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="D309" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O309" s="3" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="D310" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O310" s="3" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="D311" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O311" s="3" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="D312" s="2" t="n">
         <v>1</v>
@@ -10731,18 +11022,18 @@
         <v>52</v>
       </c>
       <c r="O312" s="3" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="D313" s="2" t="n">
         <v>1</v>
@@ -10751,18 +11042,18 @@
         <v>87</v>
       </c>
       <c r="O313" s="3" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="D314" s="2" t="n">
         <v>1</v>
@@ -10771,38 +11062,38 @@
         <v>29</v>
       </c>
       <c r="O314" s="3" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="D315" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E315" s="3" t="s">
-        <v>23</v>
+        <v>361</v>
       </c>
       <c r="O315" s="3" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="D316" s="2" t="n">
         <v>1</v>
@@ -10811,18 +11102,18 @@
         <v>31</v>
       </c>
       <c r="O316" s="3" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="D317" s="2" t="n">
         <v>1</v>
@@ -10831,103 +11122,103 @@
         <v>31</v>
       </c>
       <c r="O317" s="3" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="D318" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O318" s="3" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="D319" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O319" s="3" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="D320" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O320" s="3" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="D321" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O321" s="3" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="D322" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O322" s="3" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="D323" s="2" t="n">
         <v>1</v>
@@ -10936,86 +11227,86 @@
         <v>31</v>
       </c>
       <c r="O323" s="3" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="D324" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O324" s="3" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="D325" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O325" s="3" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="D326" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O326" s="3" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="D327" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O327" s="3" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="D328" s="2" t="n">
         <v>1</v>
@@ -11024,69 +11315,69 @@
         <v>52</v>
       </c>
       <c r="O328" s="3" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="D329" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O329" s="3" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="D330" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O330" s="3" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="D331" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O331" s="3" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="D332" s="2" t="n">
         <v>1</v>
@@ -11095,18 +11386,18 @@
         <v>99</v>
       </c>
       <c r="O332" s="3" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="D333" s="2" t="n">
         <v>1</v>
@@ -11115,18 +11406,18 @@
         <v>29</v>
       </c>
       <c r="O333" s="3" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="D334" s="2" t="n">
         <v>1</v>
@@ -11135,35 +11426,35 @@
         <v>42</v>
       </c>
       <c r="O334" s="3" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="D335" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O335" s="3" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="D336" s="2" t="n">
         <v>1</v>
@@ -11172,86 +11463,86 @@
         <v>31</v>
       </c>
       <c r="O336" s="3" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="D337" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O337" s="3" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="D338" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O338" s="3" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="D339" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O339" s="3" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="D340" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O340" s="3" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="D341" s="2" t="n">
         <v>1</v>
@@ -11260,52 +11551,52 @@
         <v>29</v>
       </c>
       <c r="O341" s="3" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="D342" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O342" s="3" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="D343" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O343" s="3" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="D344" s="2" t="n">
         <v>1</v>
@@ -11314,18 +11605,18 @@
         <v>73</v>
       </c>
       <c r="O344" s="3" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="D345" s="2" t="n">
         <v>1</v>
@@ -11334,304 +11625,331 @@
         <v>87</v>
       </c>
       <c r="O345" s="3" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="D346" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O346" s="3" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="D347" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O347" s="3" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="D348" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O348" s="3" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="D349" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O349" s="3" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="D350" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E350" s="3" t="s">
-        <v>26</v>
+        <v>412</v>
       </c>
       <c r="O350" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="351" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>194</v>
+        <v>413</v>
       </c>
       <c r="D351" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="M351" s="0" t="n">
-        <v>352</v>
-      </c>
-      <c r="N351" s="0" t="n">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="352" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+      <c r="O351" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>362</v>
+        <v>17</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="D352" s="2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="353" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E352" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="O352" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P352" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="D353" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E353" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="354" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>417</v>
+      </c>
+      <c r="O353" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="D354" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E354" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L354" s="0" t="n">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="355" customFormat="false" ht="41.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>419</v>
+      </c>
+      <c r="O354" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="B355" s="1" t="s">
-        <v>407</v>
+        <v>357</v>
+      </c>
+      <c r="B355" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="D355" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E355" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="356" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E355" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="O355" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C356" s="0" t="s">
-        <v>127</v>
+      <c r="C356" s="3" t="s">
+        <v>421</v>
       </c>
       <c r="D356" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E356" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="357" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>415</v>
+      </c>
+      <c r="O356" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="B357" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C357" s="0" t="s">
-        <v>127</v>
+        <v>357</v>
+      </c>
+      <c r="C357" s="3" t="s">
+        <v>422</v>
       </c>
       <c r="D357" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E357" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="358" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O357" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C358" s="0" t="s">
-        <v>127</v>
+        <v>17</v>
+      </c>
+      <c r="C358" s="3" t="s">
+        <v>423</v>
       </c>
       <c r="D358" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E358" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="359" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>415</v>
+      </c>
+      <c r="O358" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="D359" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E359" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="O359" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B360" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C360" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D360" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E360" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="360" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="B360" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C360" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="D360" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E360" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="361" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O360" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="D361" s="2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="362" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O361" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="D362" s="2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="363" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O362" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="D363" s="2" t="n">
         <v>1</v>
@@ -11639,16 +11957,19 @@
       <c r="E363" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="364" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O363" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="D364" s="2" t="n">
         <v>1</v>
@@ -11656,16 +11977,19 @@
       <c r="E364" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="365" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O364" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="D365" s="2" t="n">
         <v>1</v>
@@ -11673,44 +11997,53 @@
       <c r="E365" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="366" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O365" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="D366" s="2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="367" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O366" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="D367" s="2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="368" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O367" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="D368" s="2" t="n">
         <v>1</v>
@@ -11718,16 +12051,19 @@
       <c r="E368" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="369" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O368" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="D369" s="2" t="n">
         <v>1</v>
@@ -11735,58 +12071,70 @@
       <c r="E369" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="370" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O369" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="D370" s="2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="371" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O370" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="D371" s="2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="372" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O371" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="D372" s="2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="373" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O372" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="D373" s="2" t="n">
         <v>1</v>
@@ -11794,16 +12142,19 @@
       <c r="E373" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="374" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O373" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C374" s="3" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="D374" s="2" t="n">
         <v>1</v>
@@ -11811,16 +12162,19 @@
       <c r="E374" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="375" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O374" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="D375" s="2" t="n">
         <v>1</v>
@@ -11828,16 +12182,19 @@
       <c r="E375" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="376" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O375" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="D376" s="2" t="n">
         <v>1</v>
@@ -11845,44 +12202,53 @@
       <c r="E376" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="377" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O376" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="D377" s="2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="378" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O377" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C378" s="0" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="D378" s="2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="379" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O378" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="D379" s="2" t="n">
         <v>1</v>
@@ -11890,27 +12256,33 @@
       <c r="E379" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="380" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O379" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="D380" s="2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="381" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O380" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="C381" s="0" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="D381" s="2" t="n">
         <v>1</v>
@@ -11918,13 +12290,16 @@
       <c r="E381" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="382" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O381" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="C382" s="0" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="D382" s="2" t="n">
         <v>1</v>
@@ -11935,13 +12310,16 @@
       <c r="F382" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="383" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O382" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="C383" s="0" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="D383" s="2" t="n">
         <v>1</v>
@@ -11949,16 +12327,19 @@
       <c r="E383" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="384" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O383" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B384" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="D384" s="2" t="n">
         <v>1</v>
@@ -11966,10 +12347,13 @@
       <c r="E384" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="385" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O384" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="C385" s="0" t="s">
         <v>127</v>
@@ -11977,122 +12361,149 @@
       <c r="D385" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="386" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O385" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C386" s="3" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="D386" s="2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="387" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O386" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C387" s="3" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="D387" s="2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="388" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O387" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="D388" s="2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="389" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O388" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="D389" s="2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="390" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O389" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="D390" s="2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="391" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O390" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C391" s="3" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="D391" s="2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="392" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O391" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="D392" s="2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="393" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O392" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="D393" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="O393" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="C394" s="0" t="s">
         <v>127</v>
@@ -12100,8 +12511,11 @@
       <c r="D394" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="395" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O394" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="3" t="s">
         <v>16</v>
       </c>
@@ -12109,7 +12523,7 @@
         <v>27</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="D395" s="2" t="n">
         <v>1</v>
@@ -12117,8 +12531,11 @@
       <c r="E395" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="396" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O395" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="3" t="s">
         <v>16</v>
       </c>
@@ -12126,7 +12543,7 @@
         <v>17</v>
       </c>
       <c r="C396" s="3" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="D396" s="2" t="n">
         <v>1</v>
@@ -12134,8 +12551,11 @@
       <c r="E396" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="397" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O396" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="3" t="s">
         <v>16</v>
       </c>
@@ -12143,7 +12563,7 @@
         <v>17</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="D397" s="2" t="n">
         <v>1</v>
@@ -12151,8 +12571,11 @@
       <c r="E397" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="398" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O397" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="3" t="s">
         <v>16</v>
       </c>
@@ -12160,7 +12583,7 @@
         <v>24</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="D398" s="2" t="n">
         <v>1</v>
@@ -12168,8 +12591,11 @@
       <c r="E398" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="399" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O398" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="3" t="s">
         <v>16</v>
       </c>
@@ -12177,7 +12603,7 @@
         <v>27</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="D399" s="2" t="n">
         <v>1</v>
@@ -12185,8 +12611,11 @@
       <c r="E399" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="400" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O399" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="3" t="s">
         <v>16</v>
       </c>
@@ -12194,7 +12623,7 @@
         <v>21</v>
       </c>
       <c r="C400" s="3" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="D400" s="2" t="n">
         <v>1</v>
@@ -12202,8 +12631,11 @@
       <c r="E400" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="401" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O400" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="3" t="s">
         <v>16</v>
       </c>
@@ -12211,7 +12643,7 @@
         <v>24</v>
       </c>
       <c r="C401" s="3" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="D401" s="2" t="n">
         <v>1</v>
@@ -12219,8 +12651,11 @@
       <c r="E401" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="402" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O401" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="3" t="s">
         <v>16</v>
       </c>
@@ -12228,7 +12663,7 @@
         <v>27</v>
       </c>
       <c r="C402" s="3" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="D402" s="2" t="n">
         <v>1</v>
@@ -12236,8 +12671,11 @@
       <c r="E402" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="403" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O402" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="3" t="s">
         <v>16</v>
       </c>
@@ -12245,7 +12683,7 @@
         <v>17</v>
       </c>
       <c r="C403" s="3" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="D403" s="2" t="n">
         <v>1</v>
@@ -12253,8 +12691,11 @@
       <c r="E403" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="404" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O403" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="3" t="s">
         <v>16</v>
       </c>
@@ -12262,7 +12703,7 @@
         <v>21</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="D404" s="2" t="n">
         <v>1</v>
@@ -12270,8 +12711,11 @@
       <c r="E404" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="405" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O404" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="3" t="s">
         <v>16</v>
       </c>
@@ -12279,7 +12723,7 @@
         <v>21</v>
       </c>
       <c r="C405" s="3" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="D405" s="2" t="n">
         <v>1</v>
@@ -12287,25 +12731,31 @@
       <c r="E405" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="406" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O405" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C406" s="3" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D406" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J406" s="3" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="K406" s="3" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="407" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>470</v>
+      </c>
+      <c r="O406" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="3" t="s">
         <v>16</v>
       </c>
@@ -12313,7 +12763,7 @@
         <v>21</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="D407" s="2" t="n">
         <v>1</v>
@@ -12321,8 +12771,11 @@
       <c r="E407" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="408" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O407" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="3" t="s">
         <v>16</v>
       </c>
@@ -12330,7 +12783,7 @@
         <v>21</v>
       </c>
       <c r="C408" s="3" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="D408" s="2" t="n">
         <v>1</v>
@@ -12338,8 +12791,11 @@
       <c r="E408" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="409" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O408" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="3" t="s">
         <v>16</v>
       </c>
@@ -12347,7 +12803,7 @@
         <v>21</v>
       </c>
       <c r="C409" s="3" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="D409" s="2" t="n">
         <v>1</v>
@@ -12355,8 +12811,14 @@
       <c r="E409" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="410" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O409" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="P409" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="3" t="s">
         <v>16</v>
       </c>
@@ -12364,7 +12826,7 @@
         <v>27</v>
       </c>
       <c r="C410" s="3" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="D410" s="2" t="n">
         <v>1</v>
@@ -12372,8 +12834,11 @@
       <c r="E410" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="411" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O410" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="3" t="s">
         <v>16</v>
       </c>
@@ -12381,7 +12846,7 @@
         <v>27</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="D411" s="2" t="n">
         <v>1</v>
@@ -12389,8 +12854,11 @@
       <c r="E411" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="412" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O411" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="3" t="s">
         <v>16</v>
       </c>
@@ -12398,7 +12866,7 @@
         <v>17</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="D412" s="2" t="n">
         <v>1</v>
@@ -12406,8 +12874,11 @@
       <c r="E412" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="413" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O412" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="3" t="s">
         <v>16</v>
       </c>
@@ -12415,7 +12886,7 @@
         <v>21</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="D413" s="2" t="n">
         <v>1</v>
@@ -12423,8 +12894,11 @@
       <c r="E413" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="414" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O413" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="3" t="s">
         <v>16</v>
       </c>
@@ -12432,7 +12906,7 @@
         <v>27</v>
       </c>
       <c r="C414" s="3" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
       <c r="D414" s="2" t="n">
         <v>1</v>
@@ -12440,8 +12914,11 @@
       <c r="E414" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="415" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O414" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="3" t="s">
         <v>16</v>
       </c>
@@ -12449,7 +12926,7 @@
         <v>24</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="D415" s="2" t="n">
         <v>1</v>
@@ -12457,19 +12934,28 @@
       <c r="E415" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="416" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O415" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C416" s="3" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="D416" s="2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="417" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O416" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P416" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="3" t="s">
         <v>16</v>
       </c>
@@ -12477,7 +12963,7 @@
         <v>17</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="D417" s="2" t="n">
         <v>1</v>
@@ -12485,8 +12971,11 @@
       <c r="E417" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="418" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O417" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="3" t="s">
         <v>16</v>
       </c>
@@ -12494,7 +12983,7 @@
         <v>21</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="D418" s="2" t="n">
         <v>1</v>
@@ -12502,8 +12991,11 @@
       <c r="E418" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="419" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O418" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="3" t="s">
         <v>16</v>
       </c>
@@ -12511,7 +13003,7 @@
         <v>24</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="D419" s="0" t="n">
         <v>3</v>
@@ -12522,8 +13014,11 @@
       <c r="L419" s="0" t="n">
         <v>436</v>
       </c>
-    </row>
-    <row r="420" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O419" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="3" t="s">
         <v>16</v>
       </c>
@@ -12531,16 +13026,19 @@
         <v>21</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="D420" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E420" s="3" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="421" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>486</v>
+      </c>
+      <c r="O420" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="3" t="s">
         <v>16</v>
       </c>
@@ -12548,7 +13046,7 @@
         <v>27</v>
       </c>
       <c r="C421" s="3" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="D421" s="2" t="n">
         <v>1</v>
@@ -12556,8 +13054,11 @@
       <c r="E421" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="422" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O421" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="3" t="s">
         <v>16</v>
       </c>
@@ -12565,7 +13066,7 @@
         <v>17</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="D422" s="2" t="n">
         <v>1</v>
@@ -12573,8 +13074,11 @@
       <c r="E422" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="423" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O422" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="3" t="s">
         <v>16</v>
       </c>
@@ -12582,7 +13086,7 @@
         <v>21</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="D423" s="2" t="n">
         <v>1</v>
@@ -12590,8 +13094,11 @@
       <c r="E423" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="424" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O423" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="3" t="s">
         <v>16</v>
       </c>
@@ -12599,7 +13106,7 @@
         <v>24</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
       <c r="D424" s="2" t="n">
         <v>1</v>
@@ -12607,8 +13114,11 @@
       <c r="E424" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="425" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O424" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="3" t="s">
         <v>16</v>
       </c>
@@ -12616,7 +13126,7 @@
         <v>17</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="D425" s="2" t="n">
         <v>1</v>
@@ -12624,8 +13134,11 @@
       <c r="E425" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="426" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O425" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="3" t="s">
         <v>16</v>
       </c>
@@ -12633,7 +13146,7 @@
         <v>21</v>
       </c>
       <c r="C426" s="3" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="D426" s="2" t="n">
         <v>1</v>
@@ -12641,8 +13154,11 @@
       <c r="E426" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="427" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O426" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="3" t="s">
         <v>16</v>
       </c>
@@ -12650,7 +13166,7 @@
         <v>27</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
       <c r="D427" s="2" t="n">
         <v>1</v>
@@ -12658,8 +13174,11 @@
       <c r="E427" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="428" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O427" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="3" t="s">
         <v>16</v>
       </c>
@@ -12667,7 +13186,7 @@
         <v>24</v>
       </c>
       <c r="C428" s="3" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="D428" s="2" t="n">
         <v>1</v>
@@ -12675,19 +13194,28 @@
       <c r="E428" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="429" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O428" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C429" s="3" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="D429" s="2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="430" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O429" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P429" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="3" t="s">
         <v>16</v>
       </c>
@@ -12695,7 +13223,7 @@
         <v>17</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="D430" s="2" t="n">
         <v>1</v>
@@ -12703,8 +13231,11 @@
       <c r="E430" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="431" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O430" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="3" t="s">
         <v>16</v>
       </c>
@@ -12712,7 +13243,7 @@
         <v>21</v>
       </c>
       <c r="C431" s="3" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="D431" s="2" t="n">
         <v>1</v>
@@ -12720,8 +13251,11 @@
       <c r="E431" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="432" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O431" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="3" t="s">
         <v>16</v>
       </c>
@@ -12729,13 +13263,19 @@
         <v>24</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="D432" s="2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="433" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E432" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="O432" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="3" t="s">
         <v>16</v>
       </c>
@@ -12743,7 +13283,7 @@
         <v>21</v>
       </c>
       <c r="C433" s="3" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="D433" s="2" t="n">
         <v>1</v>
@@ -12751,8 +13291,11 @@
       <c r="E433" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="434" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O433" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="3" t="s">
         <v>16</v>
       </c>
@@ -12760,7 +13303,7 @@
         <v>21</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>476</v>
+        <v>494</v>
       </c>
       <c r="D434" s="2" t="n">
         <v>1</v>
@@ -12768,19 +13311,28 @@
       <c r="E434" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="435" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O434" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C435" s="3" t="s">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="D435" s="2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="436" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O435" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="P435" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="3" t="s">
         <v>16</v>
       </c>
@@ -12788,7 +13340,7 @@
         <v>17</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>478</v>
+        <v>497</v>
       </c>
       <c r="D436" s="2" t="n">
         <v>1</v>
@@ -12796,8 +13348,11 @@
       <c r="E436" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="437" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O436" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="3" t="s">
         <v>16</v>
       </c>
@@ -12805,7 +13360,7 @@
         <v>24</v>
       </c>
       <c r="C437" s="3" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="D437" s="2" t="n">
         <v>1</v>
@@ -12813,8 +13368,11 @@
       <c r="E437" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="438" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O437" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="3" t="s">
         <v>16</v>
       </c>
@@ -12822,7 +13380,7 @@
         <v>27</v>
       </c>
       <c r="C438" s="3" t="s">
-        <v>480</v>
+        <v>499</v>
       </c>
       <c r="D438" s="2" t="n">
         <v>1</v>
@@ -12830,8 +13388,11 @@
       <c r="E438" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="439" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O438" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="3" t="s">
         <v>16</v>
       </c>
@@ -12839,7 +13400,7 @@
         <v>27</v>
       </c>
       <c r="C439" s="3" t="s">
-        <v>481</v>
+        <v>500</v>
       </c>
       <c r="D439" s="2" t="n">
         <v>1</v>
@@ -12847,8 +13408,11 @@
       <c r="E439" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="440" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O439" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="3" t="s">
         <v>16</v>
       </c>
@@ -12856,7 +13420,7 @@
         <v>21</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>482</v>
+        <v>501</v>
       </c>
       <c r="D440" s="2" t="n">
         <v>1</v>
@@ -12864,8 +13428,11 @@
       <c r="E440" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="441" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O440" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="3" t="s">
         <v>16</v>
       </c>
@@ -12873,7 +13440,7 @@
         <v>17</v>
       </c>
       <c r="C441" s="3" t="s">
-        <v>483</v>
+        <v>502</v>
       </c>
       <c r="D441" s="2" t="n">
         <v>1</v>
@@ -12881,8 +13448,11 @@
       <c r="E441" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="442" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O441" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="3" t="s">
         <v>16</v>
       </c>
@@ -12890,7 +13460,7 @@
         <v>27</v>
       </c>
       <c r="C442" s="3" t="s">
-        <v>484</v>
+        <v>503</v>
       </c>
       <c r="D442" s="2" t="n">
         <v>1</v>
@@ -12898,8 +13468,11 @@
       <c r="E442" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="443" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O442" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="3" t="s">
         <v>16</v>
       </c>
@@ -12907,7 +13480,7 @@
         <v>27</v>
       </c>
       <c r="C443" s="3" t="s">
-        <v>485</v>
+        <v>504</v>
       </c>
       <c r="D443" s="2" t="n">
         <v>1</v>
@@ -12915,8 +13488,11 @@
       <c r="E443" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="444" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O443" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="444" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="3" t="s">
         <v>16</v>
       </c>
@@ -12924,7 +13500,7 @@
         <v>24</v>
       </c>
       <c r="C444" s="3" t="s">
-        <v>486</v>
+        <v>505</v>
       </c>
       <c r="D444" s="2" t="n">
         <v>1</v>
@@ -12932,8 +13508,11 @@
       <c r="E444" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="445" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O444" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="445" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="3" t="s">
         <v>16</v>
       </c>
@@ -12941,7 +13520,7 @@
         <v>21</v>
       </c>
       <c r="C445" s="3" t="s">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="D445" s="2" t="n">
         <v>1</v>
@@ -12949,8 +13528,11 @@
       <c r="E445" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="446" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O445" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="446" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="3" t="s">
         <v>16</v>
       </c>
@@ -12958,7 +13540,7 @@
         <v>27</v>
       </c>
       <c r="C446" s="3" t="s">
-        <v>488</v>
+        <v>507</v>
       </c>
       <c r="D446" s="2" t="n">
         <v>1</v>
@@ -12966,16 +13548,22 @@
       <c r="E446" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="447" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O446" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="447" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="D447" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="O447" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/scenario/ScenarioPlay2.xlsx
+++ b/scenario/ScenarioPlay2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2056" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="512">
   <si>
     <t xml:space="preserve">【場所】</t>
   </si>
@@ -1667,7 +1667,13 @@
     <t xml:space="preserve">うわっ暴れるな！こやつ、寝起きなのに何故こんなに活きが良いのだ！</t>
   </si>
   <si>
+    <t xml:space="preserve">べと</t>
+  </si>
+  <si>
     <t xml:space="preserve">ああ、ティンパニが……！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">もつ</t>
   </si>
   <si>
     <t xml:space="preserve">ぶっは、息苦しっ！なんだこれ、楽器！？ここどこ！？</t>
@@ -3585,6 +3591,9 @@
   </si>
   <si>
     <t xml:space="preserve">【ストーリークリア】三章に続く…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">END</t>
   </si>
 </sst>
 </file>
@@ -3740,10 +3749,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P447"/>
+  <dimension ref="A1:Q447"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F243" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N261" activeCellId="0" sqref="N261"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A437" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E170" activeCellId="0" sqref="E170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7267,7 +7276,9 @@
       <c r="D117" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E117" s="1"/>
+      <c r="E117" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
@@ -7290,12 +7301,14 @@
         <v>163</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D118" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E118" s="1"/>
+      <c r="E118" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
@@ -7318,7 +7331,7 @@
         <v>17</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D119" s="2" t="n">
         <v>1</v>
@@ -7340,7 +7353,7 @@
       </c>
       <c r="P119" s="1"/>
     </row>
-    <row r="120" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
         <v>162</v>
       </c>
@@ -7348,12 +7361,14 @@
         <v>163</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D120" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E120" s="1"/>
+      <c r="E120" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
@@ -7376,7 +7391,7 @@
         <v>17</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D121" s="2" t="n">
         <v>1</v>
@@ -7406,12 +7421,14 @@
         <v>163</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D122" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E122" s="1"/>
+      <c r="E122" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
@@ -7432,7 +7449,7 @@
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D123" s="2" t="n">
         <v>1</v>
@@ -7452,7 +7469,7 @@
       </c>
       <c r="P123" s="1"/>
     </row>
-    <row r="124" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
         <v>162</v>
       </c>
@@ -7460,12 +7477,14 @@
         <v>163</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D124" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E124" s="1"/>
+      <c r="E124" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
@@ -7476,11 +7495,11 @@
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
       <c r="O124" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P124" s="1"/>
     </row>
-    <row r="125" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
         <v>162</v>
       </c>
@@ -7488,12 +7507,14 @@
         <v>163</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D125" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E125" s="1"/>
+      <c r="E125" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
@@ -7504,7 +7525,7 @@
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
       <c r="O125" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P125" s="1"/>
     </row>
@@ -7516,7 +7537,7 @@
         <v>17</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D126" s="2" t="n">
         <v>1</v>
@@ -7534,11 +7555,11 @@
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
       <c r="O126" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P126" s="1"/>
     </row>
-    <row r="127" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
         <v>162</v>
       </c>
@@ -7546,12 +7567,14 @@
         <v>163</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D127" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E127" s="1"/>
+      <c r="E127" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
@@ -7562,11 +7585,11 @@
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
       <c r="O127" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P127" s="1"/>
     </row>
-    <row r="128" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
         <v>162</v>
       </c>
@@ -7574,12 +7597,14 @@
         <v>163</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D128" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E128" s="1"/>
+      <c r="E128" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
@@ -7590,7 +7615,7 @@
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
       <c r="O128" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P128" s="1"/>
     </row>
@@ -7602,7 +7627,7 @@
         <v>17</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D129" s="2" t="n">
         <v>1</v>
@@ -7620,7 +7645,7 @@
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
       <c r="O129" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P129" s="1"/>
     </row>
@@ -7632,7 +7657,7 @@
         <v>17</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D130" s="2" t="n">
         <v>1</v>
@@ -7650,11 +7675,11 @@
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
       <c r="O130" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P130" s="1"/>
     </row>
-    <row r="131" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
         <v>162</v>
       </c>
@@ -7662,12 +7687,14 @@
         <v>163</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D131" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E131" s="1"/>
+      <c r="E131" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
@@ -7678,7 +7705,7 @@
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
       <c r="O131" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P131" s="1"/>
     </row>
@@ -7690,13 +7717,13 @@
         <v>17</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D132" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
@@ -7708,7 +7735,7 @@
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
       <c r="O132" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P132" s="1"/>
     </row>
@@ -7720,13 +7747,13 @@
         <v>17</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D133" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
@@ -7738,11 +7765,11 @@
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
       <c r="O133" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P133" s="1"/>
     </row>
-    <row r="134" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
         <v>162</v>
       </c>
@@ -7750,12 +7777,14 @@
         <v>163</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D134" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E134" s="1"/>
+      <c r="E134" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
@@ -7766,11 +7795,11 @@
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
       <c r="O134" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P134" s="1"/>
     </row>
-    <row r="135" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
         <v>162</v>
       </c>
@@ -7778,12 +7807,14 @@
         <v>163</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D135" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E135" s="1"/>
+      <c r="E135" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
@@ -7794,7 +7825,7 @@
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
       <c r="O135" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P135" s="1"/>
     </row>
@@ -7806,7 +7837,7 @@
         <v>17</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D136" s="2" t="n">
         <v>1</v>
@@ -7824,11 +7855,11 @@
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
       <c r="O136" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P136" s="1"/>
     </row>
-    <row r="137" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
         <v>162</v>
       </c>
@@ -7836,12 +7867,14 @@
         <v>163</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D137" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E137" s="1"/>
+      <c r="E137" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
@@ -7852,11 +7885,11 @@
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
       <c r="O137" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P137" s="1"/>
     </row>
-    <row r="138" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
         <v>162</v>
       </c>
@@ -7864,12 +7897,14 @@
         <v>163</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D138" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E138" s="1"/>
+      <c r="E138" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
@@ -7880,7 +7915,7 @@
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
       <c r="O138" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P138" s="1"/>
     </row>
@@ -7892,7 +7927,7 @@
         <v>17</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D139" s="2" t="n">
         <v>1</v>
@@ -7910,7 +7945,7 @@
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
       <c r="O139" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P139" s="1"/>
     </row>
@@ -7922,7 +7957,7 @@
         <v>17</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D140" s="2" t="n">
         <v>1</v>
@@ -7940,7 +7975,7 @@
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
       <c r="O140" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P140" s="1"/>
     </row>
@@ -7949,7 +7984,7 @@
         <v>162</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D141" s="2" t="n">
         <v>4</v>
@@ -7961,7 +7996,7 @@
         <v>142</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7972,7 +8007,7 @@
         <v>17</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D142" s="2" t="n">
         <v>1</v>
@@ -7992,7 +8027,7 @@
         <v>17</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D143" s="2" t="n">
         <v>1</v>
@@ -8009,19 +8044,19 @@
         <v>162</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D144" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O144" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8032,7 +8067,7 @@
         <v>17</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D145" s="2" t="n">
         <v>1</v>
@@ -8041,10 +8076,10 @@
         <v>42</v>
       </c>
       <c r="O145" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
         <v>162</v>
       </c>
@@ -8052,16 +8087,19 @@
         <v>163</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D146" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="E146" s="3" t="s">
+        <v>169</v>
+      </c>
       <c r="O146" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
         <v>162</v>
       </c>
@@ -8069,13 +8107,16 @@
         <v>163</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D147" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="E147" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="O147" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8086,7 +8127,7 @@
         <v>17</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D148" s="2" t="n">
         <v>1</v>
@@ -8095,7 +8136,7 @@
         <v>42</v>
       </c>
       <c r="O148" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8106,7 +8147,7 @@
         <v>17</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D149" s="2" t="n">
         <v>1</v>
@@ -8115,10 +8156,10 @@
         <v>31</v>
       </c>
       <c r="O149" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
         <v>162</v>
       </c>
@@ -8126,13 +8167,16 @@
         <v>163</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D150" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="E150" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="O150" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8140,16 +8184,19 @@
         <v>162</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D151" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="E151" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="O151" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8157,16 +8204,19 @@
         <v>162</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D152" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="E152" s="3" t="s">
+        <v>169</v>
+      </c>
       <c r="O152" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8174,16 +8224,19 @@
         <v>162</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D153" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="E153" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="O153" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8191,22 +8244,22 @@
         <v>162</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D154" s="2" t="n">
         <v>2</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J154" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K154" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O154" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8217,7 +8270,7 @@
         <v>17</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D155" s="2" t="n">
         <v>1</v>
@@ -8226,7 +8279,7 @@
         <v>31</v>
       </c>
       <c r="O155" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8234,16 +8287,19 @@
         <v>162</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D156" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="E156" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="O156" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8251,19 +8307,22 @@
         <v>162</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D157" s="2" t="n">
         <v>3</v>
       </c>
+      <c r="E157" s="3" t="s">
+        <v>169</v>
+      </c>
       <c r="L157" s="0" t="n">
         <v>164</v>
       </c>
       <c r="O157" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8274,7 +8333,7 @@
         <v>17</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D158" s="0" t="n">
         <v>1</v>
@@ -8283,7 +8342,7 @@
         <v>31</v>
       </c>
       <c r="O158" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8291,16 +8350,19 @@
         <v>162</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D159" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="E159" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="O159" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8308,19 +8370,22 @@
         <v>162</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D160" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="E160" s="3" t="s">
+        <v>169</v>
+      </c>
       <c r="L160" s="0" t="n">
         <v>164</v>
       </c>
       <c r="O160" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8331,7 +8396,7 @@
         <v>17</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D161" s="0" t="n">
         <v>1</v>
@@ -8340,7 +8405,7 @@
         <v>31</v>
       </c>
       <c r="O161" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8348,16 +8413,19 @@
         <v>162</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="E162" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="O162" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8365,16 +8433,19 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D163" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="E163" s="3" t="s">
+        <v>169</v>
+      </c>
       <c r="O163" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8385,7 +8456,7 @@
         <v>17</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D164" s="0" t="n">
         <v>1</v>
@@ -8394,7 +8465,7 @@
         <v>31</v>
       </c>
       <c r="O164" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8405,7 +8476,7 @@
         <v>17</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D165" s="0" t="n">
         <v>1</v>
@@ -8414,7 +8485,7 @@
         <v>67</v>
       </c>
       <c r="O165" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8422,16 +8493,19 @@
         <v>162</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D166" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="E166" s="3" t="s">
+        <v>169</v>
+      </c>
       <c r="O166" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8439,16 +8513,19 @@
         <v>162</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D167" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="E167" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="O167" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8459,7 +8536,7 @@
         <v>17</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D168" s="0" t="n">
         <v>1</v>
@@ -8468,7 +8545,7 @@
         <v>65</v>
       </c>
       <c r="O168" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8479,7 +8556,7 @@
         <v>17</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D169" s="0" t="n">
         <v>1</v>
@@ -8510,7 +8587,7 @@
         <v>16</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D171" s="0" t="n">
         <v>1</v>
@@ -8519,7 +8596,7 @@
         <v>49</v>
       </c>
       <c r="P171" s="3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8530,7 +8607,7 @@
         <v>17</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D172" s="0" t="n">
         <v>1</v>
@@ -8547,7 +8624,7 @@
         <v>16</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D173" s="0" t="n">
         <v>1</v>
@@ -8561,7 +8638,7 @@
         <v>16</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D174" s="0" t="n">
         <v>1</v>
@@ -8578,7 +8655,7 @@
         <v>17</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D175" s="0" t="n">
         <v>1</v>
@@ -8598,7 +8675,7 @@
         <v>17</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D176" s="0" t="n">
         <v>1</v>
@@ -8632,7 +8709,7 @@
         <v>17</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D178" s="0" t="n">
         <v>1</v>
@@ -8652,7 +8729,7 @@
         <v>17</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D179" s="0" t="n">
         <v>1</v>
@@ -8666,72 +8743,72 @@
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D180" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O180" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D181" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O181" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C182" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D182" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O182" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="D182" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O182" s="3" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D183" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O183" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D184" s="0" t="n">
         <v>1</v>
@@ -8740,32 +8817,32 @@
         <v>31</v>
       </c>
       <c r="O184" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D185" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O185" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D186" s="0" t="n">
         <v>1</v>
@@ -8774,18 +8851,18 @@
         <v>52</v>
       </c>
       <c r="O186" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D187" s="0" t="n">
         <v>1</v>
@@ -8794,38 +8871,38 @@
         <v>52</v>
       </c>
       <c r="O187" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D188" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J188" s="3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K188" s="3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O188" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D189" s="0" t="n">
         <v>1</v>
@@ -8834,32 +8911,32 @@
         <v>52</v>
       </c>
       <c r="O189" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D190" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O190" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D191" s="0" t="n">
         <v>1</v>
@@ -8868,74 +8945,74 @@
         <v>52</v>
       </c>
       <c r="O191" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D192" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O192" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D193" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O193" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D194" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O194" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D195" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O195" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D196" s="2" t="n">
         <v>1</v>
@@ -8949,10 +9026,10 @@
     </row>
     <row r="197" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D197" s="2" t="n">
         <v>0</v>
@@ -8963,13 +9040,13 @@
     </row>
     <row r="200" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D200" s="2" t="n">
         <v>1</v>
@@ -8978,32 +9055,32 @@
         <v>52</v>
       </c>
       <c r="O200" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D201" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O201" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D202" s="2" t="n">
         <v>1</v>
@@ -9012,46 +9089,46 @@
         <v>52</v>
       </c>
       <c r="O202" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D203" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O203" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D204" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O204" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D205" s="2" t="n">
         <v>1</v>
@@ -9060,74 +9137,74 @@
         <v>52</v>
       </c>
       <c r="O205" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D206" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O206" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D207" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O207" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D208" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O208" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D209" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O209" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D210" s="2" t="n">
         <v>1</v>
@@ -9136,27 +9213,27 @@
         <v>52</v>
       </c>
       <c r="O210" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D211" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="O211" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9181,7 +9258,7 @@
         <v>17</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D213" s="2" t="n">
         <v>1</v>
@@ -9201,7 +9278,7 @@
         <v>17</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D214" s="2" t="n">
         <v>1</v>
@@ -9221,7 +9298,7 @@
         <v>24</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D215" s="2" t="n">
         <v>1</v>
@@ -9241,7 +9318,7 @@
         <v>17</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D216" s="2" t="n">
         <v>1</v>
@@ -9261,7 +9338,7 @@
         <v>24</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D217" s="2" t="n">
         <v>1</v>
@@ -9281,7 +9358,7 @@
         <v>17</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D218" s="2" t="n">
         <v>1</v>
@@ -9301,7 +9378,7 @@
         <v>24</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D219" s="2" t="n">
         <v>1</v>
@@ -9321,7 +9398,7 @@
         <v>17</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D220" s="2" t="n">
         <v>1</v>
@@ -9352,7 +9429,7 @@
         <v>16</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D222" s="2" t="n">
         <v>1</v>
@@ -9361,7 +9438,7 @@
         <v>49</v>
       </c>
       <c r="P222" s="3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9372,7 +9449,7 @@
         <v>17</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D223" s="2" t="n">
         <v>1</v>
@@ -9392,7 +9469,7 @@
         <v>24</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D224" s="2" t="n">
         <v>1</v>
@@ -9409,7 +9486,7 @@
         <v>16</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D225" s="2" t="n">
         <v>1</v>
@@ -9423,7 +9500,7 @@
         <v>16</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D226" s="2" t="n">
         <v>1</v>
@@ -9440,7 +9517,7 @@
         <v>17</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D227" s="2" t="n">
         <v>1</v>
@@ -9460,7 +9537,7 @@
         <v>17</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D228" s="2" t="n">
         <v>1</v>
@@ -9480,7 +9557,7 @@
         <v>24</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D229" s="2" t="n">
         <v>1</v>
@@ -9514,7 +9591,7 @@
         <v>24</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D231" s="2" t="n">
         <v>1</v>
@@ -9534,7 +9611,7 @@
         <v>17</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D232" s="2" t="n">
         <v>1</v>
@@ -9548,47 +9625,47 @@
     </row>
     <row r="233" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D233" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O233" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C234" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D234" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O234" s="3" t="s">
         <v>295</v>
-      </c>
-      <c r="D234" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O234" s="3" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D235" s="2" t="n">
         <v>1</v>
@@ -9597,18 +9674,18 @@
         <v>52</v>
       </c>
       <c r="O235" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D236" s="2" t="n">
         <v>1</v>
@@ -9617,7 +9694,7 @@
         <v>26</v>
       </c>
       <c r="O236" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9628,7 +9705,7 @@
         <v>17</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D237" s="2" t="n">
         <v>1</v>
@@ -9637,7 +9714,7 @@
         <v>52</v>
       </c>
       <c r="O237" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9648,7 +9725,7 @@
         <v>17</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D238" s="2" t="n">
         <v>1</v>
@@ -9657,7 +9734,7 @@
         <v>31</v>
       </c>
       <c r="O238" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9665,19 +9742,19 @@
         <v>16</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D239" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J239" s="3" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K239" s="3" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="O239" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9688,7 +9765,7 @@
         <v>17</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D240" s="2" t="n">
         <v>1</v>
@@ -9697,7 +9774,7 @@
         <v>67</v>
       </c>
       <c r="O240" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9708,7 +9785,7 @@
         <v>17</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D241" s="2" t="n">
         <v>1</v>
@@ -9717,7 +9794,7 @@
         <v>67</v>
       </c>
       <c r="O241" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9728,7 +9805,7 @@
         <v>17</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D242" s="2" t="n">
         <v>1</v>
@@ -9737,7 +9814,7 @@
         <v>67</v>
       </c>
       <c r="O242" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9748,7 +9825,7 @@
         <v>24</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D243" s="2" t="n">
         <v>1</v>
@@ -9757,7 +9834,7 @@
         <v>61</v>
       </c>
       <c r="O243" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9768,7 +9845,7 @@
         <v>17</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D244" s="2" t="n">
         <v>1</v>
@@ -9777,7 +9854,7 @@
         <v>67</v>
       </c>
       <c r="O244" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9788,7 +9865,7 @@
         <v>17</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D245" s="2" t="n">
         <v>1</v>
@@ -9797,24 +9874,24 @@
         <v>67</v>
       </c>
       <c r="O245" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D246" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="O246" s="3" t="s">
         <v>49</v>
@@ -9822,13 +9899,13 @@
     </row>
     <row r="247" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D247" s="2" t="n">
         <v>1</v>
@@ -9839,13 +9916,13 @@
     </row>
     <row r="248" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D248" s="2" t="n">
         <v>1</v>
@@ -9856,13 +9933,13 @@
     </row>
     <row r="249" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D249" s="2" t="n">
         <v>1</v>
@@ -9873,13 +9950,13 @@
     </row>
     <row r="250" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D250" s="2" t="n">
         <v>1</v>
@@ -9890,13 +9967,13 @@
     </row>
     <row r="251" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D251" s="2" t="n">
         <v>1</v>
@@ -9910,13 +9987,13 @@
     </row>
     <row r="252" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D252" s="2" t="n">
         <v>1</v>
@@ -9927,13 +10004,13 @@
     </row>
     <row r="253" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D253" s="2" t="n">
         <v>1</v>
@@ -9947,13 +10024,13 @@
     </row>
     <row r="254" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D254" s="2" t="n">
         <v>1</v>
@@ -9967,13 +10044,13 @@
     </row>
     <row r="255" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D255" s="2" t="n">
         <v>1</v>
@@ -9987,13 +10064,13 @@
     </row>
     <row r="256" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D256" s="2" t="n">
         <v>1</v>
@@ -10007,19 +10084,19 @@
     </row>
     <row r="257" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D257" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="O257" s="3" t="s">
         <v>143</v>
@@ -10027,10 +10104,10 @@
     </row>
     <row r="258" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D258" s="2" t="n">
         <v>1</v>
@@ -10039,18 +10116,18 @@
         <v>143</v>
       </c>
       <c r="P258" s="3" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D259" s="2" t="n">
         <v>1</v>
@@ -10061,13 +10138,13 @@
     </row>
     <row r="260" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D260" s="2" t="n">
         <v>1</v>
@@ -10078,13 +10155,13 @@
     </row>
     <row r="261" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D261" s="2" t="n">
         <v>1</v>
@@ -10095,13 +10172,13 @@
     </row>
     <row r="262" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D262" s="2" t="n">
         <v>1</v>
@@ -10112,13 +10189,13 @@
     </row>
     <row r="263" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D263" s="2" t="n">
         <v>1</v>
@@ -10132,13 +10209,13 @@
     </row>
     <row r="264" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D264" s="2" t="n">
         <v>1</v>
@@ -10152,10 +10229,10 @@
     </row>
     <row r="265" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C265" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D265" s="2" t="n">
         <v>0</v>
@@ -10169,7 +10246,7 @@
         <v>17</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D268" s="2" t="n">
         <v>1</v>
@@ -10178,7 +10255,7 @@
         <v>67</v>
       </c>
       <c r="O268" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10189,7 +10266,7 @@
         <v>17</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D269" s="2" t="n">
         <v>1</v>
@@ -10198,7 +10275,7 @@
         <v>67</v>
       </c>
       <c r="O269" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10209,7 +10286,7 @@
         <v>24</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D270" s="2" t="n">
         <v>1</v>
@@ -10218,7 +10295,7 @@
         <v>61</v>
       </c>
       <c r="O270" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10229,7 +10306,7 @@
         <v>17</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D271" s="2" t="n">
         <v>1</v>
@@ -10238,18 +10315,18 @@
         <v>42</v>
       </c>
       <c r="O271" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D272" s="2" t="n">
         <v>1</v>
@@ -10258,18 +10335,18 @@
         <v>42</v>
       </c>
       <c r="O272" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D273" s="2" t="n">
         <v>1</v>
@@ -10278,18 +10355,18 @@
         <v>26</v>
       </c>
       <c r="O273" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D274" s="2" t="n">
         <v>1</v>
@@ -10298,35 +10375,35 @@
         <v>42</v>
       </c>
       <c r="O274" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D275" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O275" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D276" s="2" t="n">
         <v>1</v>
@@ -10335,18 +10412,18 @@
         <v>87</v>
       </c>
       <c r="O276" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D277" s="2" t="n">
         <v>1</v>
@@ -10355,12 +10432,12 @@
         <v>67</v>
       </c>
       <c r="O277" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C278" s="0" t="s">
         <v>127</v>
@@ -10380,7 +10457,7 @@
         <v>17</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D279" s="2" t="n">
         <v>1</v>
@@ -10400,7 +10477,7 @@
         <v>24</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D280" s="2" t="n">
         <v>1</v>
@@ -10420,7 +10497,7 @@
         <v>27</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D281" s="2" t="n">
         <v>1</v>
@@ -10440,7 +10517,7 @@
         <v>17</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D282" s="2" t="n">
         <v>1</v>
@@ -10460,7 +10537,7 @@
         <v>27</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D283" s="2" t="n">
         <v>1</v>
@@ -10480,7 +10557,7 @@
         <v>17</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D284" s="2" t="n">
         <v>1</v>
@@ -10500,7 +10577,7 @@
         <v>24</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D285" s="2" t="n">
         <v>1</v>
@@ -10520,7 +10597,7 @@
         <v>17</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D286" s="2" t="n">
         <v>1</v>
@@ -10537,7 +10614,7 @@
         <v>16</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D287" s="2" t="n">
         <v>1</v>
@@ -10546,7 +10623,7 @@
         <v>49</v>
       </c>
       <c r="P287" s="3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10554,7 +10631,7 @@
         <v>16</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D288" s="2" t="n">
         <v>1</v>
@@ -10571,7 +10648,7 @@
         <v>27</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D289" s="2" t="n">
         <v>1</v>
@@ -10591,7 +10668,7 @@
         <v>17</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D290" s="2" t="n">
         <v>1</v>
@@ -10611,7 +10688,7 @@
         <v>27</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D291" s="2" t="n">
         <v>1</v>
@@ -10631,7 +10708,7 @@
         <v>17</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D292" s="2" t="n">
         <v>1</v>
@@ -10651,7 +10728,7 @@
         <v>17</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D293" s="2" t="n">
         <v>1</v>
@@ -10685,7 +10762,7 @@
         <v>27</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D295" s="2" t="n">
         <v>1</v>
@@ -10705,7 +10782,7 @@
         <v>17</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D296" s="2" t="n">
         <v>1</v>
@@ -10725,7 +10802,7 @@
         <v>17</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D297" s="2" t="n">
         <v>1</v>
@@ -10745,7 +10822,7 @@
         <v>27</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D298" s="2" t="n">
         <v>1</v>
@@ -10762,7 +10839,7 @@
         <v>16</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D299" s="2" t="n">
         <v>1</v>
@@ -10771,18 +10848,18 @@
         <v>49</v>
       </c>
       <c r="P299" s="3" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D300" s="2" t="n">
         <v>1</v>
@@ -10796,13 +10873,13 @@
     </row>
     <row r="301" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D301" s="2" t="n">
         <v>1</v>
@@ -10816,13 +10893,13 @@
     </row>
     <row r="302" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D302" s="2" t="n">
         <v>1</v>
@@ -10836,7 +10913,7 @@
     </row>
     <row r="303" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>21</v>
@@ -10848,7 +10925,7 @@
         <v>1</v>
       </c>
       <c r="E303" s="3" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="O303" s="3" t="s">
         <v>49</v>
@@ -10856,13 +10933,13 @@
     </row>
     <row r="304" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D304" s="2" t="n">
         <v>1</v>
@@ -10876,13 +10953,13 @@
     </row>
     <row r="305" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D305" s="2" t="n">
         <v>1</v>
@@ -10896,13 +10973,13 @@
     </row>
     <row r="306" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D306" s="2" t="n">
         <v>1</v>
@@ -10916,13 +10993,13 @@
     </row>
     <row r="307" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D307" s="2" t="n">
         <v>1</v>
@@ -10936,84 +11013,84 @@
     </row>
     <row r="308" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D308" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E308" s="3" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="O308" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C309" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="D309" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O309" s="3" t="s">
         <v>369</v>
-      </c>
-      <c r="D309" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O309" s="3" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D310" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O310" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D311" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O311" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D312" s="2" t="n">
         <v>1</v>
@@ -11022,18 +11099,18 @@
         <v>52</v>
       </c>
       <c r="O312" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D313" s="2" t="n">
         <v>1</v>
@@ -11042,18 +11119,18 @@
         <v>87</v>
       </c>
       <c r="O313" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D314" s="2" t="n">
         <v>1</v>
@@ -11062,38 +11139,38 @@
         <v>29</v>
       </c>
       <c r="O314" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D315" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E315" s="3" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="O315" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D316" s="2" t="n">
         <v>1</v>
@@ -11102,18 +11179,18 @@
         <v>31</v>
       </c>
       <c r="O316" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D317" s="2" t="n">
         <v>1</v>
@@ -11122,103 +11199,103 @@
         <v>31</v>
       </c>
       <c r="O317" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D318" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O318" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D319" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O319" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D320" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O320" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D321" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O321" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D322" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O322" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D323" s="2" t="n">
         <v>1</v>
@@ -11227,86 +11304,86 @@
         <v>31</v>
       </c>
       <c r="O323" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D324" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O324" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D325" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O325" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D326" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O326" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D327" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O327" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D328" s="2" t="n">
         <v>1</v>
@@ -11315,69 +11392,69 @@
         <v>52</v>
       </c>
       <c r="O328" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D329" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O329" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D330" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O330" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D331" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O331" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D332" s="2" t="n">
         <v>1</v>
@@ -11386,18 +11463,18 @@
         <v>99</v>
       </c>
       <c r="O332" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D333" s="2" t="n">
         <v>1</v>
@@ -11406,18 +11483,18 @@
         <v>29</v>
       </c>
       <c r="O333" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D334" s="2" t="n">
         <v>1</v>
@@ -11426,35 +11503,35 @@
         <v>42</v>
       </c>
       <c r="O334" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D335" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O335" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D336" s="2" t="n">
         <v>1</v>
@@ -11463,86 +11540,86 @@
         <v>31</v>
       </c>
       <c r="O336" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D337" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O337" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D338" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O338" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D339" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O339" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D340" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O340" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D341" s="2" t="n">
         <v>1</v>
@@ -11551,52 +11628,52 @@
         <v>29</v>
       </c>
       <c r="O341" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D342" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O342" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D343" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O343" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D344" s="2" t="n">
         <v>1</v>
@@ -11605,18 +11682,18 @@
         <v>73</v>
       </c>
       <c r="O344" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D345" s="2" t="n">
         <v>1</v>
@@ -11625,103 +11702,103 @@
         <v>87</v>
       </c>
       <c r="O345" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D346" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O346" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D347" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O347" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D348" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O348" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D349" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O349" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D350" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E350" s="3" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="O350" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D351" s="0" t="n">
         <v>1</v>
@@ -11732,19 +11809,19 @@
     </row>
     <row r="352" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D352" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E352" s="3" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="O352" s="3" t="s">
         <v>55</v>
@@ -11755,19 +11832,19 @@
     </row>
     <row r="353" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D353" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E353" s="3" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="O353" s="3" t="s">
         <v>55</v>
@@ -11775,19 +11852,19 @@
     </row>
     <row r="354" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D354" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E354" s="3" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="O354" s="3" t="s">
         <v>55</v>
@@ -11795,19 +11872,19 @@
     </row>
     <row r="355" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D355" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E355" s="3" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="O355" s="3" t="s">
         <v>55</v>
@@ -11815,19 +11892,19 @@
     </row>
     <row r="356" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D356" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E356" s="3" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="O356" s="3" t="s">
         <v>55</v>
@@ -11835,10 +11912,10 @@
     </row>
     <row r="357" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D357" s="2" t="n">
         <v>1</v>
@@ -11849,33 +11926,33 @@
     </row>
     <row r="358" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D358" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E358" s="3" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="O358" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D359" s="2" t="n">
         <v>1</v>
@@ -11884,18 +11961,18 @@
         <v>87</v>
       </c>
       <c r="O359" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D360" s="2" t="n">
         <v>1</v>
@@ -11904,52 +11981,52 @@
         <v>26</v>
       </c>
       <c r="O360" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D361" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O361" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D362" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O362" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D363" s="2" t="n">
         <v>1</v>
@@ -11958,18 +12035,18 @@
         <v>29</v>
       </c>
       <c r="O363" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D364" s="2" t="n">
         <v>1</v>
@@ -11978,18 +12055,18 @@
         <v>35</v>
       </c>
       <c r="O364" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D365" s="2" t="n">
         <v>1</v>
@@ -11998,52 +12075,52 @@
         <v>67</v>
       </c>
       <c r="O365" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D366" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O366" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D367" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O367" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D368" s="2" t="n">
         <v>1</v>
@@ -12052,18 +12129,18 @@
         <v>87</v>
       </c>
       <c r="O368" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D369" s="2" t="n">
         <v>1</v>
@@ -12072,69 +12149,69 @@
         <v>87</v>
       </c>
       <c r="O369" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D370" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O370" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D371" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O371" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D372" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O372" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D373" s="2" t="n">
         <v>1</v>
@@ -12143,18 +12220,18 @@
         <v>87</v>
       </c>
       <c r="O373" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C374" s="3" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D374" s="2" t="n">
         <v>1</v>
@@ -12168,13 +12245,13 @@
     </row>
     <row r="375" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D375" s="2" t="n">
         <v>1</v>
@@ -12188,13 +12265,13 @@
     </row>
     <row r="376" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D376" s="2" t="n">
         <v>1</v>
@@ -12203,52 +12280,52 @@
         <v>67</v>
       </c>
       <c r="O376" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D377" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O377" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C378" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D378" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O378" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D379" s="2" t="n">
         <v>1</v>
@@ -12257,32 +12334,32 @@
         <v>67</v>
       </c>
       <c r="O379" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D380" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O380" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C381" s="0" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D381" s="2" t="n">
         <v>1</v>
@@ -12291,15 +12368,15 @@
         <v>78</v>
       </c>
       <c r="O381" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C382" s="0" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D382" s="2" t="n">
         <v>1</v>
@@ -12311,15 +12388,15 @@
         <v>61</v>
       </c>
       <c r="O382" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C383" s="0" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D383" s="2" t="n">
         <v>1</v>
@@ -12328,18 +12405,18 @@
         <v>67</v>
       </c>
       <c r="O383" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B384" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D384" s="2" t="n">
         <v>1</v>
@@ -12348,12 +12425,12 @@
         <v>67</v>
       </c>
       <c r="O384" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C385" s="0" t="s">
         <v>127</v>
@@ -12367,13 +12444,13 @@
     </row>
     <row r="386" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C386" s="3" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D386" s="2" t="n">
         <v>1</v>
@@ -12384,13 +12461,13 @@
     </row>
     <row r="387" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C387" s="3" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D387" s="2" t="n">
         <v>1</v>
@@ -12401,13 +12478,13 @@
     </row>
     <row r="388" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D388" s="2" t="n">
         <v>1</v>
@@ -12418,13 +12495,13 @@
     </row>
     <row r="389" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D389" s="2" t="n">
         <v>1</v>
@@ -12435,13 +12512,13 @@
     </row>
     <row r="390" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D390" s="2" t="n">
         <v>1</v>
@@ -12452,13 +12529,13 @@
     </row>
     <row r="391" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C391" s="3" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D391" s="2" t="n">
         <v>1</v>
@@ -12469,13 +12546,13 @@
     </row>
     <row r="392" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D392" s="2" t="n">
         <v>1</v>
@@ -12486,13 +12563,13 @@
     </row>
     <row r="393" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D393" s="2" t="n">
         <v>1</v>
@@ -12503,7 +12580,7 @@
     </row>
     <row r="394" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C394" s="0" t="s">
         <v>127</v>
@@ -12523,7 +12600,7 @@
         <v>27</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D395" s="2" t="n">
         <v>1</v>
@@ -12532,7 +12609,7 @@
         <v>33</v>
       </c>
       <c r="O395" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12543,7 +12620,7 @@
         <v>17</v>
       </c>
       <c r="C396" s="3" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D396" s="2" t="n">
         <v>1</v>
@@ -12552,7 +12629,7 @@
         <v>52</v>
       </c>
       <c r="O396" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12563,7 +12640,7 @@
         <v>17</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D397" s="2" t="n">
         <v>1</v>
@@ -12572,7 +12649,7 @@
         <v>52</v>
       </c>
       <c r="O397" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12583,7 +12660,7 @@
         <v>24</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D398" s="2" t="n">
         <v>1</v>
@@ -12592,7 +12669,7 @@
         <v>26</v>
       </c>
       <c r="O398" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12603,7 +12680,7 @@
         <v>27</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D399" s="2" t="n">
         <v>1</v>
@@ -12612,7 +12689,7 @@
         <v>145</v>
       </c>
       <c r="O399" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12623,7 +12700,7 @@
         <v>21</v>
       </c>
       <c r="C400" s="3" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D400" s="2" t="n">
         <v>1</v>
@@ -12632,7 +12709,7 @@
         <v>73</v>
       </c>
       <c r="O400" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12643,7 +12720,7 @@
         <v>24</v>
       </c>
       <c r="C401" s="3" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D401" s="2" t="n">
         <v>1</v>
@@ -12652,7 +12729,7 @@
         <v>26</v>
       </c>
       <c r="O401" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12663,7 +12740,7 @@
         <v>27</v>
       </c>
       <c r="C402" s="3" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D402" s="2" t="n">
         <v>1</v>
@@ -12672,7 +12749,7 @@
         <v>33</v>
       </c>
       <c r="O402" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12683,7 +12760,7 @@
         <v>17</v>
       </c>
       <c r="C403" s="3" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D403" s="2" t="n">
         <v>1</v>
@@ -12692,7 +12769,7 @@
         <v>52</v>
       </c>
       <c r="O403" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12703,7 +12780,7 @@
         <v>21</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D404" s="2" t="n">
         <v>1</v>
@@ -12712,7 +12789,7 @@
         <v>99</v>
       </c>
       <c r="O404" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12723,7 +12800,7 @@
         <v>21</v>
       </c>
       <c r="C405" s="3" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D405" s="2" t="n">
         <v>1</v>
@@ -12732,7 +12809,7 @@
         <v>99</v>
       </c>
       <c r="O405" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12740,19 +12817,19 @@
         <v>16</v>
       </c>
       <c r="C406" s="3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D406" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J406" s="3" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="K406" s="3" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="O406" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12763,7 +12840,7 @@
         <v>21</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D407" s="2" t="n">
         <v>1</v>
@@ -12772,7 +12849,7 @@
         <v>73</v>
       </c>
       <c r="O407" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12783,7 +12860,7 @@
         <v>21</v>
       </c>
       <c r="C408" s="3" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D408" s="2" t="n">
         <v>1</v>
@@ -12792,7 +12869,7 @@
         <v>73</v>
       </c>
       <c r="O408" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12803,7 +12880,7 @@
         <v>21</v>
       </c>
       <c r="C409" s="3" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D409" s="2" t="n">
         <v>1</v>
@@ -12812,10 +12889,10 @@
         <v>23</v>
       </c>
       <c r="O409" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P409" s="3" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12826,7 +12903,7 @@
         <v>27</v>
       </c>
       <c r="C410" s="3" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D410" s="2" t="n">
         <v>1</v>
@@ -12835,7 +12912,7 @@
         <v>145</v>
       </c>
       <c r="O410" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12846,7 +12923,7 @@
         <v>27</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D411" s="2" t="n">
         <v>1</v>
@@ -12855,7 +12932,7 @@
         <v>33</v>
       </c>
       <c r="O411" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12866,7 +12943,7 @@
         <v>17</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D412" s="2" t="n">
         <v>1</v>
@@ -12875,7 +12952,7 @@
         <v>52</v>
       </c>
       <c r="O412" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12886,7 +12963,7 @@
         <v>21</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D413" s="2" t="n">
         <v>1</v>
@@ -12906,7 +12983,7 @@
         <v>27</v>
       </c>
       <c r="C414" s="3" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D414" s="2" t="n">
         <v>1</v>
@@ -12926,7 +13003,7 @@
         <v>24</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D415" s="2" t="n">
         <v>1</v>
@@ -12943,7 +13020,7 @@
         <v>16</v>
       </c>
       <c r="C416" s="3" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D416" s="2" t="n">
         <v>1</v>
@@ -12963,7 +13040,7 @@
         <v>17</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D417" s="2" t="n">
         <v>1</v>
@@ -12983,7 +13060,7 @@
         <v>21</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D418" s="2" t="n">
         <v>1</v>
@@ -13003,7 +13080,7 @@
         <v>24</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D419" s="0" t="n">
         <v>3</v>
@@ -13026,16 +13103,16 @@
         <v>21</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D420" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E420" s="3" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="O420" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13046,7 +13123,7 @@
         <v>27</v>
       </c>
       <c r="C421" s="3" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D421" s="2" t="n">
         <v>1</v>
@@ -13055,7 +13132,7 @@
         <v>29</v>
       </c>
       <c r="O421" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13066,7 +13143,7 @@
         <v>17</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D422" s="2" t="n">
         <v>1</v>
@@ -13075,7 +13152,7 @@
         <v>52</v>
       </c>
       <c r="O422" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13086,7 +13163,7 @@
         <v>21</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D423" s="2" t="n">
         <v>1</v>
@@ -13095,7 +13172,7 @@
         <v>23</v>
       </c>
       <c r="O423" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13106,7 +13183,7 @@
         <v>24</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D424" s="2" t="n">
         <v>1</v>
@@ -13115,7 +13192,7 @@
         <v>87</v>
       </c>
       <c r="O424" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13126,7 +13203,7 @@
         <v>17</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D425" s="2" t="n">
         <v>1</v>
@@ -13135,7 +13212,7 @@
         <v>52</v>
       </c>
       <c r="O425" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13146,7 +13223,7 @@
         <v>21</v>
       </c>
       <c r="C426" s="3" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D426" s="2" t="n">
         <v>1</v>
@@ -13155,7 +13232,7 @@
         <v>73</v>
       </c>
       <c r="O426" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13166,7 +13243,7 @@
         <v>27</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D427" s="2" t="n">
         <v>1</v>
@@ -13186,7 +13263,7 @@
         <v>24</v>
       </c>
       <c r="C428" s="3" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D428" s="2" t="n">
         <v>1</v>
@@ -13203,7 +13280,7 @@
         <v>16</v>
       </c>
       <c r="C429" s="3" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D429" s="2" t="n">
         <v>1</v>
@@ -13223,7 +13300,7 @@
         <v>17</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D430" s="2" t="n">
         <v>1</v>
@@ -13243,7 +13320,7 @@
         <v>21</v>
       </c>
       <c r="C431" s="3" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D431" s="2" t="n">
         <v>1</v>
@@ -13263,13 +13340,13 @@
         <v>24</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D432" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E432" s="3" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="O432" s="3" t="s">
         <v>20</v>
@@ -13283,7 +13360,7 @@
         <v>21</v>
       </c>
       <c r="C433" s="3" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D433" s="2" t="n">
         <v>1</v>
@@ -13292,7 +13369,7 @@
         <v>73</v>
       </c>
       <c r="O433" s="3" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13303,7 +13380,7 @@
         <v>21</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D434" s="2" t="n">
         <v>1</v>
@@ -13312,7 +13389,7 @@
         <v>35</v>
       </c>
       <c r="O434" s="3" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13320,16 +13397,16 @@
         <v>16</v>
       </c>
       <c r="C435" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="D435" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O435" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="D435" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O435" s="3" t="s">
-        <v>493</v>
-      </c>
       <c r="P435" s="3" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13340,7 +13417,7 @@
         <v>17</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D436" s="2" t="n">
         <v>1</v>
@@ -13360,7 +13437,7 @@
         <v>24</v>
       </c>
       <c r="C437" s="3" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D437" s="2" t="n">
         <v>1</v>
@@ -13380,7 +13457,7 @@
         <v>27</v>
       </c>
       <c r="C438" s="3" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D438" s="2" t="n">
         <v>1</v>
@@ -13400,7 +13477,7 @@
         <v>27</v>
       </c>
       <c r="C439" s="3" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D439" s="2" t="n">
         <v>1</v>
@@ -13420,7 +13497,7 @@
         <v>21</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D440" s="2" t="n">
         <v>1</v>
@@ -13440,7 +13517,7 @@
         <v>17</v>
       </c>
       <c r="C441" s="3" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D441" s="2" t="n">
         <v>1</v>
@@ -13460,7 +13537,7 @@
         <v>27</v>
       </c>
       <c r="C442" s="3" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D442" s="2" t="n">
         <v>1</v>
@@ -13480,7 +13557,7 @@
         <v>27</v>
       </c>
       <c r="C443" s="3" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D443" s="2" t="n">
         <v>1</v>
@@ -13500,7 +13577,7 @@
         <v>24</v>
       </c>
       <c r="C444" s="3" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D444" s="2" t="n">
         <v>1</v>
@@ -13520,7 +13597,7 @@
         <v>21</v>
       </c>
       <c r="C445" s="3" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D445" s="2" t="n">
         <v>1</v>
@@ -13540,7 +13617,7 @@
         <v>27</v>
       </c>
       <c r="C446" s="3" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D446" s="2" t="n">
         <v>1</v>
@@ -13557,13 +13634,16 @@
         <v>16</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D447" s="0" t="n">
         <v>0</v>
       </c>
       <c r="O447" s="3" t="s">
         <v>20</v>
+      </c>
+      <c r="Q447" s="0" t="s">
+        <v>511</v>
       </c>
     </row>
   </sheetData>

--- a/scenario/ScenarioPlay2.xlsx
+++ b/scenario/ScenarioPlay2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2128" uniqueCount="514">
   <si>
     <t xml:space="preserve">【場所】</t>
   </si>
@@ -2784,6 +2784,26 @@
         <color rgb="FF000000"/>
         <rFont val="游ゴシック"/>
         <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">女子生徒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">B</t>
@@ -2791,6 +2811,26 @@
   </si>
   <si>
     <t xml:space="preserve">ウフフ、とっても可愛いわぁ！貴女の服、最高ね</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">女子生徒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">B</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">……あら？もう来たのね、雉真 陽希君</t>
@@ -3603,7 +3643,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3652,6 +3692,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3751,8 +3797,8 @@
   </sheetPr>
   <dimension ref="A1:Q447"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A437" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E170" activeCellId="0" sqref="E170"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A421" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E396" activeCellId="0" sqref="E396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11031,7 +11077,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="3" t="s">
         <v>359</v>
       </c>
@@ -11044,28 +11090,34 @@
       <c r="D309" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="E309" s="3" t="s">
+        <v>372</v>
+      </c>
       <c r="O309" s="3" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="3" t="s">
         <v>359</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D310" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="E310" s="3" t="s">
+        <v>375</v>
       </c>
       <c r="O310" s="3" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="3" t="s">
         <v>359</v>
       </c>
@@ -11073,10 +11125,13 @@
         <v>370</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D311" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="E311" s="3" t="s">
+        <v>372</v>
       </c>
       <c r="O311" s="3" t="s">
         <v>369</v>
@@ -11090,7 +11145,7 @@
         <v>17</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D312" s="2" t="n">
         <v>1</v>
@@ -11110,7 +11165,7 @@
         <v>24</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D313" s="2" t="n">
         <v>1</v>
@@ -11130,7 +11185,7 @@
         <v>27</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D314" s="2" t="n">
         <v>1</v>
@@ -11150,7 +11205,7 @@
         <v>21</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D315" s="2" t="n">
         <v>1</v>
@@ -11170,7 +11225,7 @@
         <v>17</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D316" s="2" t="n">
         <v>1</v>
@@ -11190,7 +11245,7 @@
         <v>17</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D317" s="2" t="n">
         <v>1</v>
@@ -11202,7 +11257,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="3" t="s">
         <v>359</v>
       </c>
@@ -11210,16 +11265,19 @@
         <v>370</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D318" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="E318" s="3" t="s">
+        <v>372</v>
       </c>
       <c r="O318" s="3" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="3" t="s">
         <v>359</v>
       </c>
@@ -11227,33 +11285,39 @@
         <v>370</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D319" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="E319" s="3" t="s">
+        <v>372</v>
       </c>
       <c r="O319" s="3" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="3" t="s">
         <v>359</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D320" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="E320" s="3" t="s">
+        <v>375</v>
       </c>
       <c r="O320" s="3" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="3" t="s">
         <v>359</v>
       </c>
@@ -11261,16 +11325,19 @@
         <v>370</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D321" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="E321" s="3" t="s">
+        <v>372</v>
       </c>
       <c r="O321" s="3" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="3" t="s">
         <v>359</v>
       </c>
@@ -11278,10 +11345,13 @@
         <v>370</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D322" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="E322" s="3" t="s">
+        <v>372</v>
       </c>
       <c r="O322" s="3" t="s">
         <v>369</v>
@@ -11295,7 +11365,7 @@
         <v>17</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D323" s="2" t="n">
         <v>1</v>
@@ -11307,41 +11377,47 @@
         <v>369</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="3" t="s">
         <v>359</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D324" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="E324" s="3" t="s">
+        <v>375</v>
       </c>
       <c r="O324" s="3" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="3" t="s">
         <v>359</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D325" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="E325" s="3" t="s">
+        <v>375</v>
       </c>
       <c r="O325" s="3" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="3" t="s">
         <v>359</v>
       </c>
@@ -11349,27 +11425,33 @@
         <v>370</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D326" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="E326" s="3" t="s">
+        <v>372</v>
       </c>
       <c r="O326" s="3" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="3" t="s">
         <v>359</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D327" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="E327" s="3" t="s">
+        <v>375</v>
       </c>
       <c r="O327" s="3" t="s">
         <v>369</v>
@@ -11383,7 +11465,7 @@
         <v>17</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D328" s="2" t="n">
         <v>1</v>
@@ -11395,24 +11477,27 @@
         <v>369</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="3" t="s">
         <v>359</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D329" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="E329" s="3" t="s">
+        <v>375</v>
       </c>
       <c r="O329" s="3" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="3" t="s">
         <v>359</v>
       </c>
@@ -11420,27 +11505,33 @@
         <v>370</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D330" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="E330" s="3" t="s">
+        <v>372</v>
       </c>
       <c r="O330" s="3" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="3" t="s">
         <v>359</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D331" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="E331" s="3" t="s">
+        <v>375</v>
       </c>
       <c r="O331" s="3" t="s">
         <v>369</v>
@@ -11454,7 +11545,7 @@
         <v>21</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D332" s="2" t="n">
         <v>1</v>
@@ -11474,7 +11565,7 @@
         <v>27</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D333" s="2" t="n">
         <v>1</v>
@@ -11494,7 +11585,7 @@
         <v>17</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D334" s="2" t="n">
         <v>1</v>
@@ -11506,7 +11597,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="3" t="s">
         <v>359</v>
       </c>
@@ -11514,10 +11605,13 @@
         <v>370</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D335" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="E335" s="3" t="s">
+        <v>372</v>
       </c>
       <c r="O335" s="3" t="s">
         <v>369</v>
@@ -11531,7 +11625,7 @@
         <v>17</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D336" s="2" t="n">
         <v>1</v>
@@ -11543,7 +11637,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="3" t="s">
         <v>359</v>
       </c>
@@ -11551,16 +11645,19 @@
         <v>370</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D337" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="E337" s="3" t="s">
+        <v>372</v>
       </c>
       <c r="O337" s="3" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="3" t="s">
         <v>359</v>
       </c>
@@ -11568,44 +11665,53 @@
         <v>370</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D338" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="E338" s="3" t="s">
+        <v>372</v>
       </c>
       <c r="O338" s="3" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="3" t="s">
         <v>359</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D339" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="E339" s="3" t="s">
+        <v>375</v>
       </c>
       <c r="O339" s="3" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="3" t="s">
         <v>359</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D340" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="E340" s="3" t="s">
+        <v>375</v>
       </c>
       <c r="O340" s="3" t="s">
         <v>369</v>
@@ -11619,7 +11725,7 @@
         <v>27</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D341" s="2" t="n">
         <v>1</v>
@@ -11631,35 +11737,41 @@
         <v>369</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="3" t="s">
         <v>359</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D342" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="E342" s="3" t="s">
+        <v>375</v>
       </c>
       <c r="O342" s="3" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="3" t="s">
         <v>359</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D343" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="E343" s="3" t="s">
+        <v>375</v>
       </c>
       <c r="O343" s="3" t="s">
         <v>369</v>
@@ -11673,7 +11785,7 @@
         <v>21</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D344" s="2" t="n">
         <v>1</v>
@@ -11693,7 +11805,7 @@
         <v>24</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D345" s="2" t="n">
         <v>1</v>
@@ -11705,24 +11817,27 @@
         <v>369</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="3" t="s">
         <v>359</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D346" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="E346" s="3" t="s">
+        <v>375</v>
       </c>
       <c r="O346" s="3" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="3" t="s">
         <v>359</v>
       </c>
@@ -11730,16 +11845,19 @@
         <v>370</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D347" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="E347" s="3" t="s">
+        <v>372</v>
       </c>
       <c r="O347" s="3" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="3" t="s">
         <v>359</v>
       </c>
@@ -11747,16 +11865,19 @@
         <v>370</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D348" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="E348" s="3" t="s">
+        <v>372</v>
       </c>
       <c r="O348" s="3" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="3" t="s">
         <v>359</v>
       </c>
@@ -11764,10 +11885,13 @@
         <v>370</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D349" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="E349" s="3" t="s">
+        <v>372</v>
       </c>
       <c r="O349" s="3" t="s">
         <v>369</v>
@@ -11781,13 +11905,13 @@
         <v>17</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D350" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E350" s="3" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="O350" s="3" t="s">
         <v>369</v>
@@ -11798,7 +11922,7 @@
         <v>359</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D351" s="0" t="n">
         <v>1</v>
@@ -11815,13 +11939,13 @@
         <v>17</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D352" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E352" s="3" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="O352" s="3" t="s">
         <v>55</v>
@@ -11838,13 +11962,13 @@
         <v>21</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D353" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E353" s="3" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="O353" s="3" t="s">
         <v>55</v>
@@ -11858,13 +11982,13 @@
         <v>27</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D354" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E354" s="3" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="O354" s="3" t="s">
         <v>55</v>
@@ -11878,13 +12002,13 @@
         <v>17</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D355" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E355" s="3" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="O355" s="3" t="s">
         <v>55</v>
@@ -11898,13 +12022,13 @@
         <v>17</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D356" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E356" s="3" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="O356" s="3" t="s">
         <v>55</v>
@@ -11915,7 +12039,7 @@
         <v>359</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D357" s="2" t="n">
         <v>1</v>
@@ -11932,13 +12056,13 @@
         <v>17</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D358" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E358" s="3" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="O358" s="3" t="s">
         <v>369</v>
@@ -11952,7 +12076,7 @@
         <v>24</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D359" s="2" t="n">
         <v>1</v>
@@ -11972,7 +12096,7 @@
         <v>24</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D360" s="2" t="n">
         <v>1</v>
@@ -11984,7 +12108,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="3" t="s">
         <v>359</v>
       </c>
@@ -11992,27 +12116,33 @@
         <v>370</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D361" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="E361" s="3" t="s">
+        <v>372</v>
       </c>
       <c r="O361" s="3" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="3" t="s">
         <v>359</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D362" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="E362" s="3" t="s">
+        <v>375</v>
       </c>
       <c r="O362" s="3" t="s">
         <v>369</v>
@@ -12026,7 +12156,7 @@
         <v>27</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D363" s="2" t="n">
         <v>1</v>
@@ -12046,7 +12176,7 @@
         <v>21</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D364" s="2" t="n">
         <v>1</v>
@@ -12066,7 +12196,7 @@
         <v>17</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D365" s="2" t="n">
         <v>1</v>
@@ -12078,7 +12208,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="3" t="s">
         <v>359</v>
       </c>
@@ -12086,27 +12216,33 @@
         <v>370</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D366" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="E366" s="3" t="s">
+        <v>372</v>
       </c>
       <c r="O366" s="3" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="3" t="s">
         <v>359</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D367" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="E367" s="3" t="s">
+        <v>375</v>
       </c>
       <c r="O367" s="3" t="s">
         <v>369</v>
@@ -12120,7 +12256,7 @@
         <v>24</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D368" s="2" t="n">
         <v>1</v>
@@ -12140,7 +12276,7 @@
         <v>24</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D369" s="2" t="n">
         <v>1</v>
@@ -12152,24 +12288,27 @@
         <v>369</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="3" t="s">
         <v>359</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D370" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="E370" s="3" t="s">
+        <v>375</v>
       </c>
       <c r="O370" s="3" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="3" t="s">
         <v>359</v>
       </c>
@@ -12177,27 +12316,33 @@
         <v>370</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D371" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="E371" s="3" t="s">
+        <v>372</v>
       </c>
       <c r="O371" s="3" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="3" t="s">
         <v>359</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D372" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="E372" s="3" t="s">
+        <v>375</v>
       </c>
       <c r="O372" s="3" t="s">
         <v>369</v>
@@ -12211,7 +12356,7 @@
         <v>24</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D373" s="2" t="n">
         <v>1</v>
@@ -12231,7 +12376,7 @@
         <v>17</v>
       </c>
       <c r="C374" s="3" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D374" s="2" t="n">
         <v>1</v>
@@ -12251,7 +12396,7 @@
         <v>21</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D375" s="2" t="n">
         <v>1</v>
@@ -12271,7 +12416,7 @@
         <v>17</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D376" s="2" t="n">
         <v>1</v>
@@ -12283,24 +12428,27 @@
         <v>256</v>
       </c>
     </row>
-    <row r="377" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="3" t="s">
         <v>359</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D377" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="E377" s="3" t="s">
+        <v>375</v>
       </c>
       <c r="O377" s="3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="3" t="s">
         <v>359</v>
       </c>
@@ -12308,10 +12456,13 @@
         <v>370</v>
       </c>
       <c r="C378" s="0" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D378" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="E378" s="3" t="s">
+        <v>372</v>
       </c>
       <c r="O378" s="3" t="s">
         <v>256</v>
@@ -12325,7 +12476,7 @@
         <v>17</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D379" s="2" t="n">
         <v>1</v>
@@ -12337,7 +12488,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="380" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="3" t="s">
         <v>359</v>
       </c>
@@ -12345,10 +12496,13 @@
         <v>370</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D380" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="E380" s="3" t="s">
+        <v>372</v>
       </c>
       <c r="O380" s="3" t="s">
         <v>256</v>
@@ -12359,7 +12513,7 @@
         <v>359</v>
       </c>
       <c r="C381" s="0" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D381" s="2" t="n">
         <v>1</v>
@@ -12376,7 +12530,7 @@
         <v>359</v>
       </c>
       <c r="C382" s="0" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D382" s="2" t="n">
         <v>1</v>
@@ -12396,7 +12550,7 @@
         <v>359</v>
       </c>
       <c r="C383" s="0" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D383" s="2" t="n">
         <v>1</v>
@@ -12416,7 +12570,7 @@
         <v>17</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D384" s="2" t="n">
         <v>1</v>
@@ -12442,7 +12596,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="386" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="3" t="s">
         <v>359</v>
       </c>
@@ -12450,33 +12604,39 @@
         <v>370</v>
       </c>
       <c r="C386" s="3" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D386" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="E386" s="3" t="s">
+        <v>372</v>
       </c>
       <c r="O386" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="387" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="3" t="s">
         <v>359</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C387" s="3" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D387" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="E387" s="3" t="s">
+        <v>375</v>
       </c>
       <c r="O387" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="388" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="3" t="s">
         <v>359</v>
       </c>
@@ -12484,67 +12644,79 @@
         <v>370</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D388" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="E388" s="3" t="s">
+        <v>372</v>
       </c>
       <c r="O388" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="389" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="3" t="s">
         <v>359</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D389" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="E389" s="3" t="s">
+        <v>375</v>
       </c>
       <c r="O389" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="390" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="3" t="s">
         <v>359</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D390" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="E390" s="3" t="s">
+        <v>375</v>
       </c>
       <c r="O390" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="391" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="3" t="s">
         <v>359</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C391" s="3" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D391" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="E391" s="3" t="s">
+        <v>375</v>
       </c>
       <c r="O391" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="392" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="3" t="s">
         <v>359</v>
       </c>
@@ -12552,27 +12724,33 @@
         <v>370</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D392" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="E392" s="3" t="s">
+        <v>372</v>
       </c>
       <c r="O392" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="393" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="3" t="s">
         <v>359</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D393" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="E393" s="3" t="s">
+        <v>375</v>
       </c>
       <c r="O393" s="3" t="s">
         <v>49</v>
@@ -12600,7 +12778,7 @@
         <v>27</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D395" s="2" t="n">
         <v>1</v>
@@ -12620,7 +12798,7 @@
         <v>17</v>
       </c>
       <c r="C396" s="3" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D396" s="2" t="n">
         <v>1</v>
@@ -12640,7 +12818,7 @@
         <v>17</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D397" s="2" t="n">
         <v>1</v>
@@ -12660,7 +12838,7 @@
         <v>24</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D398" s="2" t="n">
         <v>1</v>
@@ -12680,7 +12858,7 @@
         <v>27</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D399" s="2" t="n">
         <v>1</v>
@@ -12700,7 +12878,7 @@
         <v>21</v>
       </c>
       <c r="C400" s="3" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D400" s="2" t="n">
         <v>1</v>
@@ -12720,7 +12898,7 @@
         <v>24</v>
       </c>
       <c r="C401" s="3" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D401" s="2" t="n">
         <v>1</v>
@@ -12740,7 +12918,7 @@
         <v>27</v>
       </c>
       <c r="C402" s="3" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D402" s="2" t="n">
         <v>1</v>
@@ -12760,7 +12938,7 @@
         <v>17</v>
       </c>
       <c r="C403" s="3" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D403" s="2" t="n">
         <v>1</v>
@@ -12780,7 +12958,7 @@
         <v>21</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D404" s="2" t="n">
         <v>1</v>
@@ -12800,7 +12978,7 @@
         <v>21</v>
       </c>
       <c r="C405" s="3" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D405" s="2" t="n">
         <v>1</v>
@@ -12823,10 +13001,10 @@
         <v>2</v>
       </c>
       <c r="J406" s="3" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K406" s="3" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="O406" s="3" t="s">
         <v>256</v>
@@ -12840,7 +13018,7 @@
         <v>21</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D407" s="2" t="n">
         <v>1</v>
@@ -12860,7 +13038,7 @@
         <v>21</v>
       </c>
       <c r="C408" s="3" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D408" s="2" t="n">
         <v>1</v>
@@ -12880,7 +13058,7 @@
         <v>21</v>
       </c>
       <c r="C409" s="3" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D409" s="2" t="n">
         <v>1</v>
@@ -12892,7 +13070,7 @@
         <v>256</v>
       </c>
       <c r="P409" s="3" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12903,7 +13081,7 @@
         <v>27</v>
       </c>
       <c r="C410" s="3" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D410" s="2" t="n">
         <v>1</v>
@@ -12923,7 +13101,7 @@
         <v>27</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D411" s="2" t="n">
         <v>1</v>
@@ -12943,7 +13121,7 @@
         <v>17</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D412" s="2" t="n">
         <v>1</v>
@@ -12963,7 +13141,7 @@
         <v>21</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D413" s="2" t="n">
         <v>1</v>
@@ -12983,7 +13161,7 @@
         <v>27</v>
       </c>
       <c r="C414" s="3" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D414" s="2" t="n">
         <v>1</v>
@@ -13003,7 +13181,7 @@
         <v>24</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D415" s="2" t="n">
         <v>1</v>
@@ -13020,7 +13198,7 @@
         <v>16</v>
       </c>
       <c r="C416" s="3" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D416" s="2" t="n">
         <v>1</v>
@@ -13040,7 +13218,7 @@
         <v>17</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D417" s="2" t="n">
         <v>1</v>
@@ -13060,7 +13238,7 @@
         <v>21</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D418" s="2" t="n">
         <v>1</v>
@@ -13080,7 +13258,7 @@
         <v>24</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D419" s="0" t="n">
         <v>3</v>
@@ -13103,13 +13281,13 @@
         <v>21</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D420" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E420" s="3" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="O420" s="3" t="s">
         <v>256</v>
@@ -13123,7 +13301,7 @@
         <v>27</v>
       </c>
       <c r="C421" s="3" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D421" s="2" t="n">
         <v>1</v>
@@ -13143,7 +13321,7 @@
         <v>17</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D422" s="2" t="n">
         <v>1</v>
@@ -13163,7 +13341,7 @@
         <v>21</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D423" s="2" t="n">
         <v>1</v>
@@ -13183,7 +13361,7 @@
         <v>24</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D424" s="2" t="n">
         <v>1</v>
@@ -13203,7 +13381,7 @@
         <v>17</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D425" s="2" t="n">
         <v>1</v>
@@ -13223,7 +13401,7 @@
         <v>21</v>
       </c>
       <c r="C426" s="3" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D426" s="2" t="n">
         <v>1</v>
@@ -13243,7 +13421,7 @@
         <v>27</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D427" s="2" t="n">
         <v>1</v>
@@ -13263,7 +13441,7 @@
         <v>24</v>
       </c>
       <c r="C428" s="3" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D428" s="2" t="n">
         <v>1</v>
@@ -13280,7 +13458,7 @@
         <v>16</v>
       </c>
       <c r="C429" s="3" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D429" s="2" t="n">
         <v>1</v>
@@ -13300,7 +13478,7 @@
         <v>17</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D430" s="2" t="n">
         <v>1</v>
@@ -13320,7 +13498,7 @@
         <v>21</v>
       </c>
       <c r="C431" s="3" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D431" s="2" t="n">
         <v>1</v>
@@ -13340,13 +13518,13 @@
         <v>24</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D432" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E432" s="3" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="O432" s="3" t="s">
         <v>20</v>
@@ -13360,7 +13538,7 @@
         <v>21</v>
       </c>
       <c r="C433" s="3" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D433" s="2" t="n">
         <v>1</v>
@@ -13369,7 +13547,7 @@
         <v>73</v>
       </c>
       <c r="O433" s="3" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13380,7 +13558,7 @@
         <v>21</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D434" s="2" t="n">
         <v>1</v>
@@ -13389,7 +13567,7 @@
         <v>35</v>
       </c>
       <c r="O434" s="3" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13397,16 +13575,16 @@
         <v>16</v>
       </c>
       <c r="C435" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="D435" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O435" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="D435" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O435" s="3" t="s">
-        <v>495</v>
-      </c>
       <c r="P435" s="3" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13417,7 +13595,7 @@
         <v>17</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D436" s="2" t="n">
         <v>1</v>
@@ -13437,7 +13615,7 @@
         <v>24</v>
       </c>
       <c r="C437" s="3" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D437" s="2" t="n">
         <v>1</v>
@@ -13457,7 +13635,7 @@
         <v>27</v>
       </c>
       <c r="C438" s="3" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D438" s="2" t="n">
         <v>1</v>
@@ -13477,7 +13655,7 @@
         <v>27</v>
       </c>
       <c r="C439" s="3" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D439" s="2" t="n">
         <v>1</v>
@@ -13497,7 +13675,7 @@
         <v>21</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D440" s="2" t="n">
         <v>1</v>
@@ -13517,7 +13695,7 @@
         <v>17</v>
       </c>
       <c r="C441" s="3" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D441" s="2" t="n">
         <v>1</v>
@@ -13537,7 +13715,7 @@
         <v>27</v>
       </c>
       <c r="C442" s="3" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D442" s="2" t="n">
         <v>1</v>
@@ -13557,7 +13735,7 @@
         <v>27</v>
       </c>
       <c r="C443" s="3" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D443" s="2" t="n">
         <v>1</v>
@@ -13577,7 +13755,7 @@
         <v>24</v>
       </c>
       <c r="C444" s="3" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D444" s="2" t="n">
         <v>1</v>
@@ -13597,7 +13775,7 @@
         <v>21</v>
       </c>
       <c r="C445" s="3" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D445" s="2" t="n">
         <v>1</v>
@@ -13617,7 +13795,7 @@
         <v>27</v>
       </c>
       <c r="C446" s="3" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D446" s="2" t="n">
         <v>1</v>
@@ -13634,7 +13812,7 @@
         <v>16</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D447" s="0" t="n">
         <v>0</v>
@@ -13643,7 +13821,7 @@
         <v>20</v>
       </c>
       <c r="Q447" s="0" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>

--- a/scenario/ScenarioPlay2.xlsx
+++ b/scenario/ScenarioPlay2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2128" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="516">
   <si>
     <t xml:space="preserve">【場所】</t>
   </si>
@@ -2126,6 +2126,9 @@
     <t xml:space="preserve">美術室</t>
   </si>
   <si>
+    <t xml:space="preserve">石膏像</t>
+  </si>
+  <si>
     <t xml:space="preserve">──美少女だ！デッサンしがいのある美少女だ！</t>
   </si>
   <si>
@@ -2246,6 +2249,9 @@
     <t xml:space="preserve">こけたーーっ！？そ、総員止まっ……！！</t>
   </si>
   <si>
+    <t xml:space="preserve">石膏像 </t>
+  </si>
+  <si>
     <t xml:space="preserve">うわあああ！</t>
   </si>
   <si>
@@ -2784,6 +2790,7 @@
         <color rgb="FF000000"/>
         <rFont val="游ゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">A</t>
     </r>
@@ -2828,6 +2835,7 @@
         <color rgb="FF000000"/>
         <rFont val="游ゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">B</t>
     </r>
@@ -3643,7 +3651,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3698,12 +3706,6 @@
       <color rgb="FF000000"/>
       <name val="游ゴシック"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -3749,7 +3751,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3772,6 +3774,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -3797,8 +3803,8 @@
   </sheetPr>
   <dimension ref="A1:Q447"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A421" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E396" activeCellId="0" sqref="E396"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A202" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B211" activeCellId="0" sqref="B211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8791,42 +8797,51 @@
       <c r="A180" s="3" t="s">
         <v>242</v>
       </c>
+      <c r="B180" s="3" t="s">
+        <v>243</v>
+      </c>
       <c r="C180" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D180" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O180" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="3" t="s">
         <v>242</v>
       </c>
+      <c r="B181" s="3" t="s">
+        <v>243</v>
+      </c>
       <c r="C181" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D181" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O181" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="D181" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O181" s="3" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="3" t="s">
         <v>242</v>
       </c>
+      <c r="B182" s="3" t="s">
+        <v>243</v>
+      </c>
       <c r="C182" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D182" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O182" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8837,13 +8852,13 @@
         <v>24</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D183" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O183" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8854,7 +8869,7 @@
         <v>17</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D184" s="0" t="n">
         <v>1</v>
@@ -8863,21 +8878,24 @@
         <v>31</v>
       </c>
       <c r="O184" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="3" t="s">
         <v>242</v>
       </c>
+      <c r="B185" s="3" t="s">
+        <v>243</v>
+      </c>
       <c r="C185" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D185" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O185" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8888,7 +8906,7 @@
         <v>17</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D186" s="0" t="n">
         <v>1</v>
@@ -8897,7 +8915,7 @@
         <v>52</v>
       </c>
       <c r="O186" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8908,7 +8926,7 @@
         <v>17</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D187" s="0" t="n">
         <v>1</v>
@@ -8917,7 +8935,7 @@
         <v>52</v>
       </c>
       <c r="O187" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8925,19 +8943,19 @@
         <v>242</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D188" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J188" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K188" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O188" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8948,7 +8966,7 @@
         <v>17</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D189" s="0" t="n">
         <v>1</v>
@@ -8957,21 +8975,24 @@
         <v>52</v>
       </c>
       <c r="O189" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="3" t="s">
         <v>242</v>
       </c>
+      <c r="B190" s="3" t="s">
+        <v>243</v>
+      </c>
       <c r="C190" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D190" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O190" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="D190" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O190" s="3" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8982,7 +9003,7 @@
         <v>17</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D191" s="0" t="n">
         <v>1</v>
@@ -8991,63 +9012,75 @@
         <v>52</v>
       </c>
       <c r="O191" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="3" t="s">
         <v>242</v>
       </c>
+      <c r="B192" s="3" t="s">
+        <v>243</v>
+      </c>
       <c r="C192" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D192" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O192" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="3" t="s">
         <v>242</v>
       </c>
+      <c r="B193" s="3" t="s">
+        <v>243</v>
+      </c>
       <c r="C193" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D193" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O193" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="3" t="s">
         <v>242</v>
       </c>
+      <c r="B194" s="3" t="s">
+        <v>243</v>
+      </c>
       <c r="C194" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D194" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O194" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="3" t="s">
         <v>242</v>
       </c>
+      <c r="B195" s="3" t="s">
+        <v>243</v>
+      </c>
       <c r="C195" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D195" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O195" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9058,7 +9091,7 @@
         <v>17</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D196" s="2" t="n">
         <v>1</v>
@@ -9075,7 +9108,7 @@
         <v>242</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D197" s="2" t="n">
         <v>0</v>
@@ -9092,7 +9125,7 @@
         <v>17</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D200" s="2" t="n">
         <v>1</v>
@@ -9101,21 +9134,24 @@
         <v>52</v>
       </c>
       <c r="O200" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="3" t="s">
         <v>242</v>
       </c>
+      <c r="B201" s="3" t="s">
+        <v>243</v>
+      </c>
       <c r="C201" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D201" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O201" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="D201" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O201" s="3" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9126,7 +9162,7 @@
         <v>17</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D202" s="2" t="n">
         <v>1</v>
@@ -9135,35 +9171,41 @@
         <v>52</v>
       </c>
       <c r="O202" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="3" t="s">
         <v>242</v>
       </c>
+      <c r="B203" s="3" t="s">
+        <v>243</v>
+      </c>
       <c r="C203" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D203" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O203" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="3" t="s">
         <v>242</v>
       </c>
+      <c r="B204" s="3" t="s">
+        <v>243</v>
+      </c>
       <c r="C204" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D204" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O204" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9174,7 +9216,7 @@
         <v>17</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D205" s="2" t="n">
         <v>1</v>
@@ -9183,63 +9225,75 @@
         <v>52</v>
       </c>
       <c r="O205" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="3" t="s">
         <v>242</v>
       </c>
+      <c r="B206" s="3" t="s">
+        <v>243</v>
+      </c>
       <c r="C206" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D206" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O206" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="3" t="s">
         <v>242</v>
       </c>
+      <c r="B207" s="3" t="s">
+        <v>243</v>
+      </c>
       <c r="C207" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D207" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O207" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="3" t="s">
         <v>242</v>
       </c>
+      <c r="B208" s="3" t="s">
+        <v>243</v>
+      </c>
       <c r="C208" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D208" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O208" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="3" t="s">
         <v>242</v>
       </c>
+      <c r="B209" s="6" t="s">
+        <v>272</v>
+      </c>
       <c r="C209" s="3" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D209" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O209" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9250,7 +9304,7 @@
         <v>17</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D210" s="2" t="n">
         <v>1</v>
@@ -9259,7 +9313,7 @@
         <v>52</v>
       </c>
       <c r="O210" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9270,16 +9324,16 @@
         <v>17</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D211" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="O211" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9304,7 +9358,7 @@
         <v>17</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D213" s="2" t="n">
         <v>1</v>
@@ -9324,7 +9378,7 @@
         <v>17</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D214" s="2" t="n">
         <v>1</v>
@@ -9344,7 +9398,7 @@
         <v>24</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D215" s="2" t="n">
         <v>1</v>
@@ -9364,7 +9418,7 @@
         <v>17</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D216" s="2" t="n">
         <v>1</v>
@@ -9384,7 +9438,7 @@
         <v>24</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D217" s="2" t="n">
         <v>1</v>
@@ -9404,7 +9458,7 @@
         <v>17</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D218" s="2" t="n">
         <v>1</v>
@@ -9424,7 +9478,7 @@
         <v>24</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D219" s="2" t="n">
         <v>1</v>
@@ -9444,7 +9498,7 @@
         <v>17</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D220" s="2" t="n">
         <v>1</v>
@@ -9495,7 +9549,7 @@
         <v>17</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D223" s="2" t="n">
         <v>1</v>
@@ -9515,7 +9569,7 @@
         <v>24</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D224" s="2" t="n">
         <v>1</v>
@@ -9532,7 +9586,7 @@
         <v>16</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D225" s="2" t="n">
         <v>1</v>
@@ -9546,7 +9600,7 @@
         <v>16</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D226" s="2" t="n">
         <v>1</v>
@@ -9563,7 +9617,7 @@
         <v>17</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D227" s="2" t="n">
         <v>1</v>
@@ -9583,7 +9637,7 @@
         <v>17</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D228" s="2" t="n">
         <v>1</v>
@@ -9603,7 +9657,7 @@
         <v>24</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D229" s="2" t="n">
         <v>1</v>
@@ -9637,7 +9691,7 @@
         <v>24</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D231" s="2" t="n">
         <v>1</v>
@@ -9657,7 +9711,7 @@
         <v>17</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D232" s="2" t="n">
         <v>1</v>
@@ -9671,47 +9725,47 @@
     </row>
     <row r="233" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D233" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O233" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C234" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D234" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O234" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="D234" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O234" s="3" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D235" s="2" t="n">
         <v>1</v>
@@ -9720,18 +9774,18 @@
         <v>52</v>
       </c>
       <c r="O235" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D236" s="2" t="n">
         <v>1</v>
@@ -9740,7 +9794,7 @@
         <v>26</v>
       </c>
       <c r="O236" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9751,7 +9805,7 @@
         <v>17</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D237" s="2" t="n">
         <v>1</v>
@@ -9760,7 +9814,7 @@
         <v>52</v>
       </c>
       <c r="O237" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9771,7 +9825,7 @@
         <v>17</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D238" s="2" t="n">
         <v>1</v>
@@ -9780,7 +9834,7 @@
         <v>31</v>
       </c>
       <c r="O238" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9788,19 +9842,19 @@
         <v>16</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D239" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J239" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K239" s="3" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O239" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9811,7 +9865,7 @@
         <v>17</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D240" s="2" t="n">
         <v>1</v>
@@ -9820,7 +9874,7 @@
         <v>67</v>
       </c>
       <c r="O240" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9831,7 +9885,7 @@
         <v>17</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D241" s="2" t="n">
         <v>1</v>
@@ -9840,7 +9894,7 @@
         <v>67</v>
       </c>
       <c r="O241" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9851,7 +9905,7 @@
         <v>17</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D242" s="2" t="n">
         <v>1</v>
@@ -9860,7 +9914,7 @@
         <v>67</v>
       </c>
       <c r="O242" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9871,7 +9925,7 @@
         <v>24</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D243" s="2" t="n">
         <v>1</v>
@@ -9880,7 +9934,7 @@
         <v>61</v>
       </c>
       <c r="O243" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9891,7 +9945,7 @@
         <v>17</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D244" s="2" t="n">
         <v>1</v>
@@ -9900,7 +9954,7 @@
         <v>67</v>
       </c>
       <c r="O244" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9911,7 +9965,7 @@
         <v>17</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D245" s="2" t="n">
         <v>1</v>
@@ -9920,24 +9974,24 @@
         <v>67</v>
       </c>
       <c r="O245" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D246" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="O246" s="3" t="s">
         <v>49</v>
@@ -9945,13 +9999,13 @@
     </row>
     <row r="247" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D247" s="2" t="n">
         <v>1</v>
@@ -9962,13 +10016,13 @@
     </row>
     <row r="248" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D248" s="2" t="n">
         <v>1</v>
@@ -9979,13 +10033,13 @@
     </row>
     <row r="249" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D249" s="2" t="n">
         <v>1</v>
@@ -9996,13 +10050,13 @@
     </row>
     <row r="250" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D250" s="2" t="n">
         <v>1</v>
@@ -10013,13 +10067,13 @@
     </row>
     <row r="251" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D251" s="2" t="n">
         <v>1</v>
@@ -10033,13 +10087,13 @@
     </row>
     <row r="252" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D252" s="2" t="n">
         <v>1</v>
@@ -10050,13 +10104,13 @@
     </row>
     <row r="253" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D253" s="2" t="n">
         <v>1</v>
@@ -10070,13 +10124,13 @@
     </row>
     <row r="254" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D254" s="2" t="n">
         <v>1</v>
@@ -10090,13 +10144,13 @@
     </row>
     <row r="255" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C255" s="6" t="s">
-        <v>319</v>
+      <c r="C255" s="7" t="s">
+        <v>321</v>
       </c>
       <c r="D255" s="2" t="n">
         <v>1</v>
@@ -10110,13 +10164,13 @@
     </row>
     <row r="256" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D256" s="2" t="n">
         <v>1</v>
@@ -10130,19 +10184,19 @@
     </row>
     <row r="257" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D257" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="O257" s="3" t="s">
         <v>143</v>
@@ -10150,10 +10204,10 @@
     </row>
     <row r="258" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D258" s="2" t="n">
         <v>1</v>
@@ -10162,18 +10216,18 @@
         <v>143</v>
       </c>
       <c r="P258" s="3" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D259" s="2" t="n">
         <v>1</v>
@@ -10184,13 +10238,13 @@
     </row>
     <row r="260" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D260" s="2" t="n">
         <v>1</v>
@@ -10201,13 +10255,13 @@
     </row>
     <row r="261" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D261" s="2" t="n">
         <v>1</v>
@@ -10218,13 +10272,13 @@
     </row>
     <row r="262" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D262" s="2" t="n">
         <v>1</v>
@@ -10235,13 +10289,13 @@
     </row>
     <row r="263" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D263" s="2" t="n">
         <v>1</v>
@@ -10255,13 +10309,13 @@
     </row>
     <row r="264" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D264" s="2" t="n">
         <v>1</v>
@@ -10275,10 +10329,10 @@
     </row>
     <row r="265" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C265" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D265" s="2" t="n">
         <v>0</v>
@@ -10292,7 +10346,7 @@
         <v>17</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D268" s="2" t="n">
         <v>1</v>
@@ -10301,7 +10355,7 @@
         <v>67</v>
       </c>
       <c r="O268" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10312,7 +10366,7 @@
         <v>17</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D269" s="2" t="n">
         <v>1</v>
@@ -10321,7 +10375,7 @@
         <v>67</v>
       </c>
       <c r="O269" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10332,7 +10386,7 @@
         <v>24</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D270" s="2" t="n">
         <v>1</v>
@@ -10341,7 +10395,7 @@
         <v>61</v>
       </c>
       <c r="O270" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10352,7 +10406,7 @@
         <v>17</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D271" s="2" t="n">
         <v>1</v>
@@ -10361,18 +10415,18 @@
         <v>42</v>
       </c>
       <c r="O271" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D272" s="2" t="n">
         <v>1</v>
@@ -10381,18 +10435,18 @@
         <v>42</v>
       </c>
       <c r="O272" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D273" s="2" t="n">
         <v>1</v>
@@ -10401,18 +10455,18 @@
         <v>26</v>
       </c>
       <c r="O273" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D274" s="2" t="n">
         <v>1</v>
@@ -10421,35 +10475,35 @@
         <v>42</v>
       </c>
       <c r="O274" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D275" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O275" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D276" s="2" t="n">
         <v>1</v>
@@ -10458,18 +10512,18 @@
         <v>87</v>
       </c>
       <c r="O276" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D277" s="2" t="n">
         <v>1</v>
@@ -10478,12 +10532,12 @@
         <v>67</v>
       </c>
       <c r="O277" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C278" s="0" t="s">
         <v>127</v>
@@ -10503,7 +10557,7 @@
         <v>17</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D279" s="2" t="n">
         <v>1</v>
@@ -10523,7 +10577,7 @@
         <v>24</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D280" s="2" t="n">
         <v>1</v>
@@ -10543,7 +10597,7 @@
         <v>27</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D281" s="2" t="n">
         <v>1</v>
@@ -10563,7 +10617,7 @@
         <v>17</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D282" s="2" t="n">
         <v>1</v>
@@ -10583,7 +10637,7 @@
         <v>27</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D283" s="2" t="n">
         <v>1</v>
@@ -10603,7 +10657,7 @@
         <v>17</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D284" s="2" t="n">
         <v>1</v>
@@ -10623,7 +10677,7 @@
         <v>24</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D285" s="2" t="n">
         <v>1</v>
@@ -10643,7 +10697,7 @@
         <v>17</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D286" s="2" t="n">
         <v>1</v>
@@ -10660,7 +10714,7 @@
         <v>16</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D287" s="2" t="n">
         <v>1</v>
@@ -10677,7 +10731,7 @@
         <v>16</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D288" s="2" t="n">
         <v>1</v>
@@ -10694,7 +10748,7 @@
         <v>27</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D289" s="2" t="n">
         <v>1</v>
@@ -10714,7 +10768,7 @@
         <v>17</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D290" s="2" t="n">
         <v>1</v>
@@ -10734,7 +10788,7 @@
         <v>27</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D291" s="2" t="n">
         <v>1</v>
@@ -10754,7 +10808,7 @@
         <v>17</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D292" s="2" t="n">
         <v>1</v>
@@ -10774,7 +10828,7 @@
         <v>17</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D293" s="2" t="n">
         <v>1</v>
@@ -10808,7 +10862,7 @@
         <v>27</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D295" s="2" t="n">
         <v>1</v>
@@ -10828,7 +10882,7 @@
         <v>17</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D296" s="2" t="n">
         <v>1</v>
@@ -10848,7 +10902,7 @@
         <v>17</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D297" s="2" t="n">
         <v>1</v>
@@ -10868,7 +10922,7 @@
         <v>27</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D298" s="2" t="n">
         <v>1</v>
@@ -10885,7 +10939,7 @@
         <v>16</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D299" s="2" t="n">
         <v>1</v>
@@ -10894,18 +10948,18 @@
         <v>49</v>
       </c>
       <c r="P299" s="3" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D300" s="2" t="n">
         <v>1</v>
@@ -10919,13 +10973,13 @@
     </row>
     <row r="301" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D301" s="2" t="n">
         <v>1</v>
@@ -10939,13 +10993,13 @@
     </row>
     <row r="302" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D302" s="2" t="n">
         <v>1</v>
@@ -10959,7 +11013,7 @@
     </row>
     <row r="303" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>21</v>
@@ -10971,7 +11025,7 @@
         <v>1</v>
       </c>
       <c r="E303" s="3" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="O303" s="3" t="s">
         <v>49</v>
@@ -10979,13 +11033,13 @@
     </row>
     <row r="304" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D304" s="2" t="n">
         <v>1</v>
@@ -10999,13 +11053,13 @@
     </row>
     <row r="305" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D305" s="2" t="n">
         <v>1</v>
@@ -11019,13 +11073,13 @@
     </row>
     <row r="306" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D306" s="2" t="n">
         <v>1</v>
@@ -11039,13 +11093,13 @@
     </row>
     <row r="307" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D307" s="2" t="n">
         <v>1</v>
@@ -11059,93 +11113,93 @@
     </row>
     <row r="308" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D308" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E308" s="3" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="O308" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C309" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="D309" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E309" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="O309" s="3" t="s">
         <v>371</v>
-      </c>
-      <c r="D309" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E309" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="O309" s="3" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D310" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E310" s="3" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="O310" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D311" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E311" s="3" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="O311" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D312" s="2" t="n">
         <v>1</v>
@@ -11154,18 +11208,18 @@
         <v>52</v>
       </c>
       <c r="O312" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D313" s="2" t="n">
         <v>1</v>
@@ -11174,18 +11228,18 @@
         <v>87</v>
       </c>
       <c r="O313" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D314" s="2" t="n">
         <v>1</v>
@@ -11194,38 +11248,38 @@
         <v>29</v>
       </c>
       <c r="O314" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D315" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E315" s="3" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="O315" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D316" s="2" t="n">
         <v>1</v>
@@ -11234,18 +11288,18 @@
         <v>31</v>
       </c>
       <c r="O316" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D317" s="2" t="n">
         <v>1</v>
@@ -11254,118 +11308,118 @@
         <v>31</v>
       </c>
       <c r="O317" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D318" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E318" s="3" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="O318" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D319" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E319" s="3" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="O319" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D320" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E320" s="3" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="O320" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D321" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E321" s="3" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="O321" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D322" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E322" s="3" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="O322" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D323" s="2" t="n">
         <v>1</v>
@@ -11374,98 +11428,98 @@
         <v>31</v>
       </c>
       <c r="O323" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D324" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E324" s="3" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="O324" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D325" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E325" s="3" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="O325" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D326" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E326" s="3" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="O326" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D327" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E327" s="3" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="O327" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D328" s="2" t="n">
         <v>1</v>
@@ -11474,78 +11528,78 @@
         <v>52</v>
       </c>
       <c r="O328" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D329" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E329" s="3" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="O329" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D330" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E330" s="3" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="O330" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D331" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E331" s="3" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="O331" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D332" s="2" t="n">
         <v>1</v>
@@ -11554,18 +11608,18 @@
         <v>99</v>
       </c>
       <c r="O332" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D333" s="2" t="n">
         <v>1</v>
@@ -11574,18 +11628,18 @@
         <v>29</v>
       </c>
       <c r="O333" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D334" s="2" t="n">
         <v>1</v>
@@ -11594,38 +11648,38 @@
         <v>42</v>
       </c>
       <c r="O334" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D335" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E335" s="3" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="O335" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D336" s="2" t="n">
         <v>1</v>
@@ -11634,98 +11688,98 @@
         <v>31</v>
       </c>
       <c r="O336" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D337" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E337" s="3" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="O337" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D338" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E338" s="3" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="O338" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D339" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E339" s="3" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="O339" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D340" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E340" s="3" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="O340" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D341" s="2" t="n">
         <v>1</v>
@@ -11734,58 +11788,58 @@
         <v>29</v>
       </c>
       <c r="O341" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D342" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E342" s="3" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="O342" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D343" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E343" s="3" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="O343" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D344" s="2" t="n">
         <v>1</v>
@@ -11794,18 +11848,18 @@
         <v>73</v>
       </c>
       <c r="O344" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D345" s="2" t="n">
         <v>1</v>
@@ -11814,115 +11868,115 @@
         <v>87</v>
       </c>
       <c r="O345" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D346" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E346" s="3" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="O346" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D347" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E347" s="3" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="O347" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D348" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E348" s="3" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="O348" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D349" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E349" s="3" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="O349" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D350" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E350" s="3" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="O350" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D351" s="0" t="n">
         <v>1</v>
@@ -11933,19 +11987,19 @@
     </row>
     <row r="352" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D352" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E352" s="3" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="O352" s="3" t="s">
         <v>55</v>
@@ -11956,19 +12010,19 @@
     </row>
     <row r="353" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D353" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E353" s="3" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="O353" s="3" t="s">
         <v>55</v>
@@ -11976,19 +12030,19 @@
     </row>
     <row r="354" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D354" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E354" s="3" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="O354" s="3" t="s">
         <v>55</v>
@@ -11996,19 +12050,19 @@
     </row>
     <row r="355" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D355" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E355" s="3" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="O355" s="3" t="s">
         <v>55</v>
@@ -12016,19 +12070,19 @@
     </row>
     <row r="356" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D356" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E356" s="3" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="O356" s="3" t="s">
         <v>55</v>
@@ -12036,10 +12090,10 @@
     </row>
     <row r="357" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D357" s="2" t="n">
         <v>1</v>
@@ -12050,33 +12104,33 @@
     </row>
     <row r="358" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D358" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E358" s="3" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="O358" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D359" s="2" t="n">
         <v>1</v>
@@ -12085,18 +12139,18 @@
         <v>87</v>
       </c>
       <c r="O359" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D360" s="2" t="n">
         <v>1</v>
@@ -12105,58 +12159,58 @@
         <v>26</v>
       </c>
       <c r="O360" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D361" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E361" s="3" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="O361" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D362" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E362" s="3" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="O362" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D363" s="2" t="n">
         <v>1</v>
@@ -12165,18 +12219,18 @@
         <v>29</v>
       </c>
       <c r="O363" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D364" s="2" t="n">
         <v>1</v>
@@ -12185,18 +12239,18 @@
         <v>35</v>
       </c>
       <c r="O364" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D365" s="2" t="n">
         <v>1</v>
@@ -12205,58 +12259,58 @@
         <v>67</v>
       </c>
       <c r="O365" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D366" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E366" s="3" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="O366" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D367" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E367" s="3" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="O367" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D368" s="2" t="n">
         <v>1</v>
@@ -12265,18 +12319,18 @@
         <v>87</v>
       </c>
       <c r="O368" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D369" s="2" t="n">
         <v>1</v>
@@ -12285,78 +12339,78 @@
         <v>87</v>
       </c>
       <c r="O369" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D370" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E370" s="3" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="O370" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D371" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E371" s="3" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="O371" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D372" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E372" s="3" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="O372" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D373" s="2" t="n">
         <v>1</v>
@@ -12365,18 +12419,18 @@
         <v>87</v>
       </c>
       <c r="O373" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C374" s="3" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D374" s="2" t="n">
         <v>1</v>
@@ -12390,13 +12444,13 @@
     </row>
     <row r="375" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D375" s="2" t="n">
         <v>1</v>
@@ -12410,13 +12464,13 @@
     </row>
     <row r="376" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D376" s="2" t="n">
         <v>1</v>
@@ -12425,58 +12479,58 @@
         <v>67</v>
       </c>
       <c r="O376" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D377" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E377" s="3" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="O377" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C378" s="0" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D378" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E378" s="3" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="O378" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D379" s="2" t="n">
         <v>1</v>
@@ -12485,35 +12539,35 @@
         <v>67</v>
       </c>
       <c r="O379" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D380" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E380" s="3" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="O380" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C381" s="0" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D381" s="2" t="n">
         <v>1</v>
@@ -12522,15 +12576,15 @@
         <v>78</v>
       </c>
       <c r="O381" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C382" s="0" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D382" s="2" t="n">
         <v>1</v>
@@ -12542,15 +12596,15 @@
         <v>61</v>
       </c>
       <c r="O382" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C383" s="0" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D383" s="2" t="n">
         <v>1</v>
@@ -12559,18 +12613,18 @@
         <v>67</v>
       </c>
       <c r="O383" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B384" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D384" s="2" t="n">
         <v>1</v>
@@ -12579,12 +12633,12 @@
         <v>67</v>
       </c>
       <c r="O384" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C385" s="0" t="s">
         <v>127</v>
@@ -12598,19 +12652,19 @@
     </row>
     <row r="386" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C386" s="3" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D386" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E386" s="3" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="O386" s="3" t="s">
         <v>49</v>
@@ -12618,19 +12672,19 @@
     </row>
     <row r="387" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C387" s="3" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D387" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E387" s="3" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="O387" s="3" t="s">
         <v>49</v>
@@ -12638,19 +12692,19 @@
     </row>
     <row r="388" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D388" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E388" s="3" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="O388" s="3" t="s">
         <v>49</v>
@@ -12658,19 +12712,19 @@
     </row>
     <row r="389" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D389" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E389" s="3" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="O389" s="3" t="s">
         <v>49</v>
@@ -12678,19 +12732,19 @@
     </row>
     <row r="390" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D390" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E390" s="3" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="O390" s="3" t="s">
         <v>49</v>
@@ -12698,19 +12752,19 @@
     </row>
     <row r="391" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C391" s="3" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D391" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E391" s="3" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="O391" s="3" t="s">
         <v>49</v>
@@ -12718,19 +12772,19 @@
     </row>
     <row r="392" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D392" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E392" s="3" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="O392" s="3" t="s">
         <v>49</v>
@@ -12738,19 +12792,19 @@
     </row>
     <row r="393" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D393" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E393" s="3" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="O393" s="3" t="s">
         <v>49</v>
@@ -12758,7 +12812,7 @@
     </row>
     <row r="394" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C394" s="0" t="s">
         <v>127</v>
@@ -12778,7 +12832,7 @@
         <v>27</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D395" s="2" t="n">
         <v>1</v>
@@ -12787,7 +12841,7 @@
         <v>33</v>
       </c>
       <c r="O395" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12798,7 +12852,7 @@
         <v>17</v>
       </c>
       <c r="C396" s="3" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D396" s="2" t="n">
         <v>1</v>
@@ -12807,7 +12861,7 @@
         <v>52</v>
       </c>
       <c r="O396" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12818,7 +12872,7 @@
         <v>17</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D397" s="2" t="n">
         <v>1</v>
@@ -12827,7 +12881,7 @@
         <v>52</v>
       </c>
       <c r="O397" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12838,7 +12892,7 @@
         <v>24</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D398" s="2" t="n">
         <v>1</v>
@@ -12847,7 +12901,7 @@
         <v>26</v>
       </c>
       <c r="O398" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12858,7 +12912,7 @@
         <v>27</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D399" s="2" t="n">
         <v>1</v>
@@ -12867,7 +12921,7 @@
         <v>145</v>
       </c>
       <c r="O399" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12878,7 +12932,7 @@
         <v>21</v>
       </c>
       <c r="C400" s="3" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D400" s="2" t="n">
         <v>1</v>
@@ -12887,7 +12941,7 @@
         <v>73</v>
       </c>
       <c r="O400" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12898,7 +12952,7 @@
         <v>24</v>
       </c>
       <c r="C401" s="3" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D401" s="2" t="n">
         <v>1</v>
@@ -12907,7 +12961,7 @@
         <v>26</v>
       </c>
       <c r="O401" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12918,7 +12972,7 @@
         <v>27</v>
       </c>
       <c r="C402" s="3" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D402" s="2" t="n">
         <v>1</v>
@@ -12927,7 +12981,7 @@
         <v>33</v>
       </c>
       <c r="O402" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12938,7 +12992,7 @@
         <v>17</v>
       </c>
       <c r="C403" s="3" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D403" s="2" t="n">
         <v>1</v>
@@ -12947,7 +13001,7 @@
         <v>52</v>
       </c>
       <c r="O403" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12958,7 +13012,7 @@
         <v>21</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D404" s="2" t="n">
         <v>1</v>
@@ -12967,7 +13021,7 @@
         <v>99</v>
       </c>
       <c r="O404" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12978,7 +13032,7 @@
         <v>21</v>
       </c>
       <c r="C405" s="3" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D405" s="2" t="n">
         <v>1</v>
@@ -12987,7 +13041,7 @@
         <v>99</v>
       </c>
       <c r="O405" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12995,19 +13049,19 @@
         <v>16</v>
       </c>
       <c r="C406" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D406" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J406" s="3" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="K406" s="3" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="O406" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13018,7 +13072,7 @@
         <v>21</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D407" s="2" t="n">
         <v>1</v>
@@ -13027,7 +13081,7 @@
         <v>73</v>
       </c>
       <c r="O407" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13038,7 +13092,7 @@
         <v>21</v>
       </c>
       <c r="C408" s="3" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D408" s="2" t="n">
         <v>1</v>
@@ -13047,7 +13101,7 @@
         <v>73</v>
       </c>
       <c r="O408" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13058,7 +13112,7 @@
         <v>21</v>
       </c>
       <c r="C409" s="3" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D409" s="2" t="n">
         <v>1</v>
@@ -13067,10 +13121,10 @@
         <v>23</v>
       </c>
       <c r="O409" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P409" s="3" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13081,7 +13135,7 @@
         <v>27</v>
       </c>
       <c r="C410" s="3" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D410" s="2" t="n">
         <v>1</v>
@@ -13090,7 +13144,7 @@
         <v>145</v>
       </c>
       <c r="O410" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13101,7 +13155,7 @@
         <v>27</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D411" s="2" t="n">
         <v>1</v>
@@ -13110,7 +13164,7 @@
         <v>33</v>
       </c>
       <c r="O411" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13121,7 +13175,7 @@
         <v>17</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D412" s="2" t="n">
         <v>1</v>
@@ -13130,7 +13184,7 @@
         <v>52</v>
       </c>
       <c r="O412" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13141,7 +13195,7 @@
         <v>21</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D413" s="2" t="n">
         <v>1</v>
@@ -13161,7 +13215,7 @@
         <v>27</v>
       </c>
       <c r="C414" s="3" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D414" s="2" t="n">
         <v>1</v>
@@ -13181,7 +13235,7 @@
         <v>24</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D415" s="2" t="n">
         <v>1</v>
@@ -13198,7 +13252,7 @@
         <v>16</v>
       </c>
       <c r="C416" s="3" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D416" s="2" t="n">
         <v>1</v>
@@ -13218,7 +13272,7 @@
         <v>17</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D417" s="2" t="n">
         <v>1</v>
@@ -13238,7 +13292,7 @@
         <v>21</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D418" s="2" t="n">
         <v>1</v>
@@ -13258,7 +13312,7 @@
         <v>24</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D419" s="0" t="n">
         <v>3</v>
@@ -13281,16 +13335,16 @@
         <v>21</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D420" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E420" s="3" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="O420" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13301,7 +13355,7 @@
         <v>27</v>
       </c>
       <c r="C421" s="3" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D421" s="2" t="n">
         <v>1</v>
@@ -13310,7 +13364,7 @@
         <v>29</v>
       </c>
       <c r="O421" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13321,7 +13375,7 @@
         <v>17</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D422" s="2" t="n">
         <v>1</v>
@@ -13330,7 +13384,7 @@
         <v>52</v>
       </c>
       <c r="O422" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13341,7 +13395,7 @@
         <v>21</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D423" s="2" t="n">
         <v>1</v>
@@ -13350,7 +13404,7 @@
         <v>23</v>
       </c>
       <c r="O423" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13361,7 +13415,7 @@
         <v>24</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D424" s="2" t="n">
         <v>1</v>
@@ -13370,7 +13424,7 @@
         <v>87</v>
       </c>
       <c r="O424" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13381,7 +13435,7 @@
         <v>17</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D425" s="2" t="n">
         <v>1</v>
@@ -13390,7 +13444,7 @@
         <v>52</v>
       </c>
       <c r="O425" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13401,7 +13455,7 @@
         <v>21</v>
       </c>
       <c r="C426" s="3" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D426" s="2" t="n">
         <v>1</v>
@@ -13410,7 +13464,7 @@
         <v>73</v>
       </c>
       <c r="O426" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13421,7 +13475,7 @@
         <v>27</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D427" s="2" t="n">
         <v>1</v>
@@ -13441,7 +13495,7 @@
         <v>24</v>
       </c>
       <c r="C428" s="3" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D428" s="2" t="n">
         <v>1</v>
@@ -13458,7 +13512,7 @@
         <v>16</v>
       </c>
       <c r="C429" s="3" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D429" s="2" t="n">
         <v>1</v>
@@ -13478,7 +13532,7 @@
         <v>17</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D430" s="2" t="n">
         <v>1</v>
@@ -13498,7 +13552,7 @@
         <v>21</v>
       </c>
       <c r="C431" s="3" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D431" s="2" t="n">
         <v>1</v>
@@ -13518,13 +13572,13 @@
         <v>24</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D432" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E432" s="3" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="O432" s="3" t="s">
         <v>20</v>
@@ -13538,7 +13592,7 @@
         <v>21</v>
       </c>
       <c r="C433" s="3" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D433" s="2" t="n">
         <v>1</v>
@@ -13547,7 +13601,7 @@
         <v>73</v>
       </c>
       <c r="O433" s="3" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13558,7 +13612,7 @@
         <v>21</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D434" s="2" t="n">
         <v>1</v>
@@ -13567,7 +13621,7 @@
         <v>35</v>
       </c>
       <c r="O434" s="3" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13575,16 +13629,16 @@
         <v>16</v>
       </c>
       <c r="C435" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="D435" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O435" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="D435" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O435" s="3" t="s">
-        <v>497</v>
-      </c>
       <c r="P435" s="3" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13595,7 +13649,7 @@
         <v>17</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D436" s="2" t="n">
         <v>1</v>
@@ -13615,7 +13669,7 @@
         <v>24</v>
       </c>
       <c r="C437" s="3" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D437" s="2" t="n">
         <v>1</v>
@@ -13635,7 +13689,7 @@
         <v>27</v>
       </c>
       <c r="C438" s="3" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D438" s="2" t="n">
         <v>1</v>
@@ -13655,7 +13709,7 @@
         <v>27</v>
       </c>
       <c r="C439" s="3" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D439" s="2" t="n">
         <v>1</v>
@@ -13675,7 +13729,7 @@
         <v>21</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D440" s="2" t="n">
         <v>1</v>
@@ -13695,7 +13749,7 @@
         <v>17</v>
       </c>
       <c r="C441" s="3" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D441" s="2" t="n">
         <v>1</v>
@@ -13715,7 +13769,7 @@
         <v>27</v>
       </c>
       <c r="C442" s="3" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D442" s="2" t="n">
         <v>1</v>
@@ -13735,7 +13789,7 @@
         <v>27</v>
       </c>
       <c r="C443" s="3" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D443" s="2" t="n">
         <v>1</v>
@@ -13755,7 +13809,7 @@
         <v>24</v>
       </c>
       <c r="C444" s="3" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D444" s="2" t="n">
         <v>1</v>
@@ -13775,7 +13829,7 @@
         <v>21</v>
       </c>
       <c r="C445" s="3" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D445" s="2" t="n">
         <v>1</v>
@@ -13795,7 +13849,7 @@
         <v>27</v>
       </c>
       <c r="C446" s="3" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D446" s="2" t="n">
         <v>1</v>
@@ -13812,7 +13866,7 @@
         <v>16</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D447" s="0" t="n">
         <v>0</v>
@@ -13821,7 +13875,7 @@
         <v>20</v>
       </c>
       <c r="Q447" s="0" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>

--- a/scenario/ScenarioPlay2.xlsx
+++ b/scenario/ScenarioPlay2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="517">
   <si>
     <t xml:space="preserve">【場所】</t>
   </si>
@@ -2729,7 +2729,7 @@
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">恐怖</t>
+      <t xml:space="preserve">和ロリ</t>
     </r>
   </si>
   <si>
@@ -2905,6 +2905,36 @@
   </si>
   <si>
     <t xml:space="preserve">つつしんでおことわりさせてください……</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">白鷺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">和ロリ</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">服を着せられただけでここまで弱るとは。鍛錬が足りていませんね</t>
@@ -3803,8 +3833,8 @@
   </sheetPr>
   <dimension ref="A1:Q447"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A202" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B211" activeCellId="0" sqref="B211"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11591,7 +11621,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="3" t="s">
         <v>361</v>
       </c>
@@ -11605,7 +11635,7 @@
         <v>1</v>
       </c>
       <c r="E332" s="3" t="s">
-        <v>99</v>
+        <v>400</v>
       </c>
       <c r="O332" s="3" t="s">
         <v>371</v>
@@ -11619,7 +11649,7 @@
         <v>27</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D333" s="2" t="n">
         <v>1</v>
@@ -11639,7 +11669,7 @@
         <v>17</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D334" s="2" t="n">
         <v>1</v>
@@ -11659,7 +11689,7 @@
         <v>372</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D335" s="2" t="n">
         <v>1</v>
@@ -11679,7 +11709,7 @@
         <v>17</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D336" s="2" t="n">
         <v>1</v>
@@ -11699,7 +11729,7 @@
         <v>372</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D337" s="2" t="n">
         <v>1</v>
@@ -11719,7 +11749,7 @@
         <v>372</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D338" s="2" t="n">
         <v>1</v>
@@ -11739,7 +11769,7 @@
         <v>375</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D339" s="2" t="n">
         <v>1</v>
@@ -11759,7 +11789,7 @@
         <v>375</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D340" s="2" t="n">
         <v>1</v>
@@ -11779,7 +11809,7 @@
         <v>27</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D341" s="2" t="n">
         <v>1</v>
@@ -11799,7 +11829,7 @@
         <v>375</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D342" s="2" t="n">
         <v>1</v>
@@ -11819,7 +11849,7 @@
         <v>375</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D343" s="2" t="n">
         <v>1</v>
@@ -11831,7 +11861,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="3" t="s">
         <v>361</v>
       </c>
@@ -11839,13 +11869,13 @@
         <v>21</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D344" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E344" s="3" t="s">
-        <v>73</v>
+        <v>400</v>
       </c>
       <c r="O344" s="3" t="s">
         <v>371</v>
@@ -11859,7 +11889,7 @@
         <v>24</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D345" s="2" t="n">
         <v>1</v>
@@ -11879,7 +11909,7 @@
         <v>375</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D346" s="2" t="n">
         <v>1</v>
@@ -11899,7 +11929,7 @@
         <v>372</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D347" s="2" t="n">
         <v>1</v>
@@ -11919,7 +11949,7 @@
         <v>372</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D348" s="2" t="n">
         <v>1</v>
@@ -11939,7 +11969,7 @@
         <v>372</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D349" s="2" t="n">
         <v>1</v>
@@ -11959,13 +11989,13 @@
         <v>17</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D350" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E350" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O350" s="3" t="s">
         <v>371</v>
@@ -11976,7 +12006,7 @@
         <v>361</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D351" s="0" t="n">
         <v>1</v>
@@ -11993,13 +12023,13 @@
         <v>17</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D352" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E352" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O352" s="3" t="s">
         <v>55</v>
@@ -12016,13 +12046,13 @@
         <v>21</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D353" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E353" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O353" s="3" t="s">
         <v>55</v>
@@ -12036,13 +12066,13 @@
         <v>27</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D354" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E354" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O354" s="3" t="s">
         <v>55</v>
@@ -12056,13 +12086,13 @@
         <v>17</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D355" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E355" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O355" s="3" t="s">
         <v>55</v>
@@ -12076,13 +12106,13 @@
         <v>17</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D356" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E356" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O356" s="3" t="s">
         <v>55</v>
@@ -12093,7 +12123,7 @@
         <v>361</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D357" s="2" t="n">
         <v>1</v>
@@ -12110,13 +12140,13 @@
         <v>17</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D358" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E358" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O358" s="3" t="s">
         <v>371</v>
@@ -12130,7 +12160,7 @@
         <v>24</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D359" s="2" t="n">
         <v>1</v>
@@ -12150,7 +12180,7 @@
         <v>24</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D360" s="2" t="n">
         <v>1</v>
@@ -12170,7 +12200,7 @@
         <v>372</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D361" s="2" t="n">
         <v>1</v>
@@ -12190,7 +12220,7 @@
         <v>375</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D362" s="2" t="n">
         <v>1</v>
@@ -12210,7 +12240,7 @@
         <v>27</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D363" s="2" t="n">
         <v>1</v>
@@ -12230,7 +12260,7 @@
         <v>21</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D364" s="2" t="n">
         <v>1</v>
@@ -12250,7 +12280,7 @@
         <v>17</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D365" s="2" t="n">
         <v>1</v>
@@ -12270,7 +12300,7 @@
         <v>372</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D366" s="2" t="n">
         <v>1</v>
@@ -12290,7 +12320,7 @@
         <v>375</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D367" s="2" t="n">
         <v>1</v>
@@ -12310,7 +12340,7 @@
         <v>24</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D368" s="2" t="n">
         <v>1</v>
@@ -12330,7 +12360,7 @@
         <v>24</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D369" s="2" t="n">
         <v>1</v>
@@ -12350,7 +12380,7 @@
         <v>375</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D370" s="2" t="n">
         <v>1</v>
@@ -12370,7 +12400,7 @@
         <v>372</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D371" s="2" t="n">
         <v>1</v>
@@ -12390,7 +12420,7 @@
         <v>375</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D372" s="2" t="n">
         <v>1</v>
@@ -12410,7 +12440,7 @@
         <v>24</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D373" s="2" t="n">
         <v>1</v>
@@ -12430,7 +12460,7 @@
         <v>17</v>
       </c>
       <c r="C374" s="3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D374" s="2" t="n">
         <v>1</v>
@@ -12450,7 +12480,7 @@
         <v>21</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D375" s="2" t="n">
         <v>1</v>
@@ -12470,7 +12500,7 @@
         <v>17</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D376" s="2" t="n">
         <v>1</v>
@@ -12490,7 +12520,7 @@
         <v>375</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D377" s="2" t="n">
         <v>1</v>
@@ -12510,7 +12540,7 @@
         <v>372</v>
       </c>
       <c r="C378" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D378" s="2" t="n">
         <v>1</v>
@@ -12530,7 +12560,7 @@
         <v>17</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D379" s="2" t="n">
         <v>1</v>
@@ -12550,7 +12580,7 @@
         <v>372</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D380" s="2" t="n">
         <v>1</v>
@@ -12567,7 +12597,7 @@
         <v>361</v>
       </c>
       <c r="C381" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D381" s="2" t="n">
         <v>1</v>
@@ -12584,7 +12614,7 @@
         <v>361</v>
       </c>
       <c r="C382" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D382" s="2" t="n">
         <v>1</v>
@@ -12604,7 +12634,7 @@
         <v>361</v>
       </c>
       <c r="C383" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D383" s="2" t="n">
         <v>1</v>
@@ -12624,7 +12654,7 @@
         <v>17</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D384" s="2" t="n">
         <v>1</v>
@@ -12658,7 +12688,7 @@
         <v>372</v>
       </c>
       <c r="C386" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D386" s="2" t="n">
         <v>1</v>
@@ -12678,7 +12708,7 @@
         <v>375</v>
       </c>
       <c r="C387" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D387" s="2" t="n">
         <v>1</v>
@@ -12698,7 +12728,7 @@
         <v>372</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D388" s="2" t="n">
         <v>1</v>
@@ -12718,7 +12748,7 @@
         <v>375</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D389" s="2" t="n">
         <v>1</v>
@@ -12738,7 +12768,7 @@
         <v>375</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D390" s="2" t="n">
         <v>1</v>
@@ -12758,7 +12788,7 @@
         <v>375</v>
       </c>
       <c r="C391" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D391" s="2" t="n">
         <v>1</v>
@@ -12778,7 +12808,7 @@
         <v>372</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D392" s="2" t="n">
         <v>1</v>
@@ -12798,7 +12828,7 @@
         <v>375</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D393" s="2" t="n">
         <v>1</v>
@@ -12832,7 +12862,7 @@
         <v>27</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D395" s="2" t="n">
         <v>1</v>
@@ -12852,7 +12882,7 @@
         <v>17</v>
       </c>
       <c r="C396" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D396" s="2" t="n">
         <v>1</v>
@@ -12872,7 +12902,7 @@
         <v>17</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D397" s="2" t="n">
         <v>1</v>
@@ -12892,7 +12922,7 @@
         <v>24</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D398" s="2" t="n">
         <v>1</v>
@@ -12912,7 +12942,7 @@
         <v>27</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D399" s="2" t="n">
         <v>1</v>
@@ -12932,7 +12962,7 @@
         <v>21</v>
       </c>
       <c r="C400" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D400" s="2" t="n">
         <v>1</v>
@@ -12952,7 +12982,7 @@
         <v>24</v>
       </c>
       <c r="C401" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D401" s="2" t="n">
         <v>1</v>
@@ -12972,7 +13002,7 @@
         <v>27</v>
       </c>
       <c r="C402" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D402" s="2" t="n">
         <v>1</v>
@@ -12992,7 +13022,7 @@
         <v>17</v>
       </c>
       <c r="C403" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D403" s="2" t="n">
         <v>1</v>
@@ -13012,7 +13042,7 @@
         <v>21</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D404" s="2" t="n">
         <v>1</v>
@@ -13032,7 +13062,7 @@
         <v>21</v>
       </c>
       <c r="C405" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D405" s="2" t="n">
         <v>1</v>
@@ -13055,10 +13085,10 @@
         <v>2</v>
       </c>
       <c r="J406" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K406" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O406" s="3" t="s">
         <v>257</v>
@@ -13072,7 +13102,7 @@
         <v>21</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D407" s="2" t="n">
         <v>1</v>
@@ -13092,7 +13122,7 @@
         <v>21</v>
       </c>
       <c r="C408" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D408" s="2" t="n">
         <v>1</v>
@@ -13112,7 +13142,7 @@
         <v>21</v>
       </c>
       <c r="C409" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D409" s="2" t="n">
         <v>1</v>
@@ -13124,7 +13154,7 @@
         <v>257</v>
       </c>
       <c r="P409" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13135,7 +13165,7 @@
         <v>27</v>
       </c>
       <c r="C410" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D410" s="2" t="n">
         <v>1</v>
@@ -13155,7 +13185,7 @@
         <v>27</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D411" s="2" t="n">
         <v>1</v>
@@ -13175,7 +13205,7 @@
         <v>17</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D412" s="2" t="n">
         <v>1</v>
@@ -13195,7 +13225,7 @@
         <v>21</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D413" s="2" t="n">
         <v>1</v>
@@ -13215,7 +13245,7 @@
         <v>27</v>
       </c>
       <c r="C414" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D414" s="2" t="n">
         <v>1</v>
@@ -13235,7 +13265,7 @@
         <v>24</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D415" s="2" t="n">
         <v>1</v>
@@ -13252,7 +13282,7 @@
         <v>16</v>
       </c>
       <c r="C416" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D416" s="2" t="n">
         <v>1</v>
@@ -13272,7 +13302,7 @@
         <v>17</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D417" s="2" t="n">
         <v>1</v>
@@ -13292,7 +13322,7 @@
         <v>21</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D418" s="2" t="n">
         <v>1</v>
@@ -13312,7 +13342,7 @@
         <v>24</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D419" s="0" t="n">
         <v>3</v>
@@ -13335,13 +13365,13 @@
         <v>21</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D420" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E420" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O420" s="3" t="s">
         <v>257</v>
@@ -13355,7 +13385,7 @@
         <v>27</v>
       </c>
       <c r="C421" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D421" s="2" t="n">
         <v>1</v>
@@ -13375,7 +13405,7 @@
         <v>17</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D422" s="2" t="n">
         <v>1</v>
@@ -13395,7 +13425,7 @@
         <v>21</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D423" s="2" t="n">
         <v>1</v>
@@ -13415,7 +13445,7 @@
         <v>24</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D424" s="2" t="n">
         <v>1</v>
@@ -13435,7 +13465,7 @@
         <v>17</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D425" s="2" t="n">
         <v>1</v>
@@ -13455,7 +13485,7 @@
         <v>21</v>
       </c>
       <c r="C426" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D426" s="2" t="n">
         <v>1</v>
@@ -13475,7 +13505,7 @@
         <v>27</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D427" s="2" t="n">
         <v>1</v>
@@ -13495,7 +13525,7 @@
         <v>24</v>
       </c>
       <c r="C428" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D428" s="2" t="n">
         <v>1</v>
@@ -13512,7 +13542,7 @@
         <v>16</v>
       </c>
       <c r="C429" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D429" s="2" t="n">
         <v>1</v>
@@ -13532,7 +13562,7 @@
         <v>17</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D430" s="2" t="n">
         <v>1</v>
@@ -13552,7 +13582,7 @@
         <v>21</v>
       </c>
       <c r="C431" s="3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D431" s="2" t="n">
         <v>1</v>
@@ -13572,13 +13602,13 @@
         <v>24</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D432" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E432" s="3" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="O432" s="3" t="s">
         <v>20</v>
@@ -13592,7 +13622,7 @@
         <v>21</v>
       </c>
       <c r="C433" s="3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D433" s="2" t="n">
         <v>1</v>
@@ -13601,7 +13631,7 @@
         <v>73</v>
       </c>
       <c r="O433" s="3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13612,7 +13642,7 @@
         <v>21</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D434" s="2" t="n">
         <v>1</v>
@@ -13621,7 +13651,7 @@
         <v>35</v>
       </c>
       <c r="O434" s="3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13629,16 +13659,16 @@
         <v>16</v>
       </c>
       <c r="C435" s="3" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D435" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O435" s="3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="P435" s="3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13649,7 +13679,7 @@
         <v>17</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D436" s="2" t="n">
         <v>1</v>
@@ -13669,7 +13699,7 @@
         <v>24</v>
       </c>
       <c r="C437" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D437" s="2" t="n">
         <v>1</v>
@@ -13689,7 +13719,7 @@
         <v>27</v>
       </c>
       <c r="C438" s="3" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D438" s="2" t="n">
         <v>1</v>
@@ -13709,7 +13739,7 @@
         <v>27</v>
       </c>
       <c r="C439" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D439" s="2" t="n">
         <v>1</v>
@@ -13729,7 +13759,7 @@
         <v>21</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D440" s="2" t="n">
         <v>1</v>
@@ -13749,7 +13779,7 @@
         <v>17</v>
       </c>
       <c r="C441" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D441" s="2" t="n">
         <v>1</v>
@@ -13769,7 +13799,7 @@
         <v>27</v>
       </c>
       <c r="C442" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D442" s="2" t="n">
         <v>1</v>
@@ -13789,7 +13819,7 @@
         <v>27</v>
       </c>
       <c r="C443" s="3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D443" s="2" t="n">
         <v>1</v>
@@ -13809,7 +13839,7 @@
         <v>24</v>
       </c>
       <c r="C444" s="3" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D444" s="2" t="n">
         <v>1</v>
@@ -13829,7 +13859,7 @@
         <v>21</v>
       </c>
       <c r="C445" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D445" s="2" t="n">
         <v>1</v>
@@ -13849,7 +13879,7 @@
         <v>27</v>
       </c>
       <c r="C446" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D446" s="2" t="n">
         <v>1</v>
@@ -13866,7 +13896,7 @@
         <v>16</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D447" s="0" t="n">
         <v>0</v>
@@ -13875,7 +13905,7 @@
         <v>20</v>
       </c>
       <c r="Q447" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
   </sheetData>
